--- a/sequences/04_retrieval_2.xlsx
+++ b/sequences/04_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1856,6 +1856,30 @@
       <c r="F2" t="s">
         <v>205</v>
       </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -1920,6 +1944,30 @@
       <c r="F4" t="s">
         <v>205</v>
       </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -2116,6 +2164,30 @@
       <c r="F9" t="s">
         <v>205</v>
       </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" t="s">
+        <v>205</v>
+      </c>
+      <c r="N9" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2312,6 +2384,30 @@
       <c r="F14" t="s">
         <v>205</v>
       </c>
+      <c r="G14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -2508,6 +2604,30 @@
       <c r="F19" t="s">
         <v>205</v>
       </c>
+      <c r="G19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" t="s">
+        <v>205</v>
+      </c>
+      <c r="I19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" t="s">
+        <v>205</v>
+      </c>
+      <c r="L19" t="s">
+        <v>205</v>
+      </c>
+      <c r="M19" t="s">
+        <v>205</v>
+      </c>
+      <c r="N19" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
@@ -2792,6 +2912,30 @@
       <c r="F26" t="s">
         <v>205</v>
       </c>
+      <c r="G26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="s">
+        <v>205</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
@@ -2812,6 +2956,30 @@
       <c r="F27" t="s">
         <v>205</v>
       </c>
+      <c r="G27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27" t="s">
+        <v>205</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="s">
+        <v>205</v>
+      </c>
+      <c r="N27" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2876,6 +3044,30 @@
       <c r="F29" t="s">
         <v>205</v>
       </c>
+      <c r="G29" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" t="s">
+        <v>205</v>
+      </c>
+      <c r="N29" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
@@ -2896,6 +3088,30 @@
       <c r="F30" t="s">
         <v>205</v>
       </c>
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" t="s">
+        <v>205</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -3004,6 +3220,30 @@
       <c r="F33" t="s">
         <v>205</v>
       </c>
+      <c r="G33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L33" t="s">
+        <v>205</v>
+      </c>
+      <c r="M33" t="s">
+        <v>205</v>
+      </c>
+      <c r="N33" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
@@ -3024,6 +3264,30 @@
       <c r="F34" t="s">
         <v>205</v>
       </c>
+      <c r="G34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" t="s">
+        <v>205</v>
+      </c>
+      <c r="M34" t="s">
+        <v>205</v>
+      </c>
+      <c r="N34" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3044,6 +3308,30 @@
       <c r="F35" t="s">
         <v>205</v>
       </c>
+      <c r="G35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" t="s">
+        <v>205</v>
+      </c>
+      <c r="K35" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M35" t="s">
+        <v>205</v>
+      </c>
+      <c r="N35" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
@@ -3152,6 +3440,30 @@
       <c r="F38" t="s">
         <v>205</v>
       </c>
+      <c r="G38" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I38" t="s">
+        <v>205</v>
+      </c>
+      <c r="J38" t="s">
+        <v>205</v>
+      </c>
+      <c r="K38" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" t="s">
+        <v>205</v>
+      </c>
+      <c r="M38" t="s">
+        <v>205</v>
+      </c>
+      <c r="N38" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3392,6 +3704,30 @@
       <c r="F44" t="s">
         <v>205</v>
       </c>
+      <c r="G44" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" t="s">
+        <v>205</v>
+      </c>
+      <c r="K44" t="s">
+        <v>205</v>
+      </c>
+      <c r="L44" t="s">
+        <v>205</v>
+      </c>
+      <c r="M44" t="s">
+        <v>205</v>
+      </c>
+      <c r="N44" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
@@ -3676,6 +4012,30 @@
       <c r="F51" t="s">
         <v>205</v>
       </c>
+      <c r="G51" t="s">
+        <v>205</v>
+      </c>
+      <c r="H51" t="s">
+        <v>205</v>
+      </c>
+      <c r="I51" t="s">
+        <v>205</v>
+      </c>
+      <c r="J51" t="s">
+        <v>205</v>
+      </c>
+      <c r="K51" t="s">
+        <v>205</v>
+      </c>
+      <c r="L51" t="s">
+        <v>205</v>
+      </c>
+      <c r="M51" t="s">
+        <v>205</v>
+      </c>
+      <c r="N51" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3740,6 +4100,30 @@
       <c r="F53" t="s">
         <v>205</v>
       </c>
+      <c r="G53" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" t="s">
+        <v>205</v>
+      </c>
+      <c r="K53" t="s">
+        <v>205</v>
+      </c>
+      <c r="L53" t="s">
+        <v>205</v>
+      </c>
+      <c r="M53" t="s">
+        <v>205</v>
+      </c>
+      <c r="N53" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
@@ -3848,6 +4232,30 @@
       <c r="F56" t="s">
         <v>205</v>
       </c>
+      <c r="G56" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" t="s">
+        <v>205</v>
+      </c>
+      <c r="I56" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" t="s">
+        <v>205</v>
+      </c>
+      <c r="K56" t="s">
+        <v>205</v>
+      </c>
+      <c r="L56" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" t="s">
+        <v>205</v>
+      </c>
+      <c r="N56" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3912,6 +4320,30 @@
       <c r="F58" t="s">
         <v>205</v>
       </c>
+      <c r="G58" t="s">
+        <v>205</v>
+      </c>
+      <c r="H58" t="s">
+        <v>205</v>
+      </c>
+      <c r="I58" t="s">
+        <v>205</v>
+      </c>
+      <c r="J58" t="s">
+        <v>205</v>
+      </c>
+      <c r="K58" t="s">
+        <v>205</v>
+      </c>
+      <c r="L58" t="s">
+        <v>205</v>
+      </c>
+      <c r="M58" t="s">
+        <v>205</v>
+      </c>
+      <c r="N58" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
@@ -4020,6 +4452,30 @@
       <c r="F61" t="s">
         <v>205</v>
       </c>
+      <c r="G61" t="s">
+        <v>205</v>
+      </c>
+      <c r="H61" t="s">
+        <v>205</v>
+      </c>
+      <c r="I61" t="s">
+        <v>205</v>
+      </c>
+      <c r="J61" t="s">
+        <v>205</v>
+      </c>
+      <c r="K61" t="s">
+        <v>205</v>
+      </c>
+      <c r="L61" t="s">
+        <v>205</v>
+      </c>
+      <c r="M61" t="s">
+        <v>205</v>
+      </c>
+      <c r="N61" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
@@ -4128,6 +4584,30 @@
       <c r="F64" t="s">
         <v>205</v>
       </c>
+      <c r="G64" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" t="s">
+        <v>205</v>
+      </c>
+      <c r="I64" t="s">
+        <v>205</v>
+      </c>
+      <c r="J64" t="s">
+        <v>205</v>
+      </c>
+      <c r="K64" t="s">
+        <v>205</v>
+      </c>
+      <c r="L64" t="s">
+        <v>205</v>
+      </c>
+      <c r="M64" t="s">
+        <v>205</v>
+      </c>
+      <c r="N64" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4148,6 +4628,30 @@
       <c r="F65" t="s">
         <v>205</v>
       </c>
+      <c r="G65" t="s">
+        <v>205</v>
+      </c>
+      <c r="H65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" t="s">
+        <v>205</v>
+      </c>
+      <c r="J65" t="s">
+        <v>205</v>
+      </c>
+      <c r="K65" t="s">
+        <v>205</v>
+      </c>
+      <c r="L65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M65" t="s">
+        <v>205</v>
+      </c>
+      <c r="N65" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4168,6 +4672,30 @@
       <c r="F66" t="s">
         <v>205</v>
       </c>
+      <c r="G66" t="s">
+        <v>205</v>
+      </c>
+      <c r="H66" t="s">
+        <v>205</v>
+      </c>
+      <c r="I66" t="s">
+        <v>205</v>
+      </c>
+      <c r="J66" t="s">
+        <v>205</v>
+      </c>
+      <c r="K66" t="s">
+        <v>205</v>
+      </c>
+      <c r="L66" t="s">
+        <v>205</v>
+      </c>
+      <c r="M66" t="s">
+        <v>205</v>
+      </c>
+      <c r="N66" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
@@ -4188,6 +4716,30 @@
       <c r="F67" t="s">
         <v>205</v>
       </c>
+      <c r="G67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H67" t="s">
+        <v>205</v>
+      </c>
+      <c r="I67" t="s">
+        <v>205</v>
+      </c>
+      <c r="J67" t="s">
+        <v>205</v>
+      </c>
+      <c r="K67" t="s">
+        <v>205</v>
+      </c>
+      <c r="L67" t="s">
+        <v>205</v>
+      </c>
+      <c r="M67" t="s">
+        <v>205</v>
+      </c>
+      <c r="N67" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4428,6 +4980,30 @@
       <c r="F73" t="s">
         <v>205</v>
       </c>
+      <c r="G73" t="s">
+        <v>205</v>
+      </c>
+      <c r="H73" t="s">
+        <v>205</v>
+      </c>
+      <c r="I73" t="s">
+        <v>205</v>
+      </c>
+      <c r="J73" t="s">
+        <v>205</v>
+      </c>
+      <c r="K73" t="s">
+        <v>205</v>
+      </c>
+      <c r="L73" t="s">
+        <v>205</v>
+      </c>
+      <c r="M73" t="s">
+        <v>205</v>
+      </c>
+      <c r="N73" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
@@ -4492,6 +5068,30 @@
       <c r="F75" t="s">
         <v>205</v>
       </c>
+      <c r="G75" t="s">
+        <v>205</v>
+      </c>
+      <c r="H75" t="s">
+        <v>205</v>
+      </c>
+      <c r="I75" t="s">
+        <v>205</v>
+      </c>
+      <c r="J75" t="s">
+        <v>205</v>
+      </c>
+      <c r="K75" t="s">
+        <v>205</v>
+      </c>
+      <c r="L75" t="s">
+        <v>205</v>
+      </c>
+      <c r="M75" t="s">
+        <v>205</v>
+      </c>
+      <c r="N75" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
@@ -4688,6 +5288,30 @@
       <c r="F80" t="s">
         <v>205</v>
       </c>
+      <c r="G80" t="s">
+        <v>205</v>
+      </c>
+      <c r="H80" t="s">
+        <v>205</v>
+      </c>
+      <c r="I80" t="s">
+        <v>205</v>
+      </c>
+      <c r="J80" t="s">
+        <v>205</v>
+      </c>
+      <c r="K80" t="s">
+        <v>205</v>
+      </c>
+      <c r="L80" t="s">
+        <v>205</v>
+      </c>
+      <c r="M80" t="s">
+        <v>205</v>
+      </c>
+      <c r="N80" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
@@ -4752,6 +5376,30 @@
       <c r="F82" t="s">
         <v>205</v>
       </c>
+      <c r="G82" t="s">
+        <v>205</v>
+      </c>
+      <c r="H82" t="s">
+        <v>205</v>
+      </c>
+      <c r="I82" t="s">
+        <v>205</v>
+      </c>
+      <c r="J82" t="s">
+        <v>205</v>
+      </c>
+      <c r="K82" t="s">
+        <v>205</v>
+      </c>
+      <c r="L82" t="s">
+        <v>205</v>
+      </c>
+      <c r="M82" t="s">
+        <v>205</v>
+      </c>
+      <c r="N82" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
@@ -4816,6 +5464,30 @@
       <c r="F84" t="s">
         <v>205</v>
       </c>
+      <c r="G84" t="s">
+        <v>205</v>
+      </c>
+      <c r="H84" t="s">
+        <v>205</v>
+      </c>
+      <c r="I84" t="s">
+        <v>205</v>
+      </c>
+      <c r="J84" t="s">
+        <v>205</v>
+      </c>
+      <c r="K84" t="s">
+        <v>205</v>
+      </c>
+      <c r="L84" t="s">
+        <v>205</v>
+      </c>
+      <c r="M84" t="s">
+        <v>205</v>
+      </c>
+      <c r="N84" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -5012,6 +5684,30 @@
       <c r="F89" t="s">
         <v>205</v>
       </c>
+      <c r="G89" t="s">
+        <v>205</v>
+      </c>
+      <c r="H89" t="s">
+        <v>205</v>
+      </c>
+      <c r="I89" t="s">
+        <v>205</v>
+      </c>
+      <c r="J89" t="s">
+        <v>205</v>
+      </c>
+      <c r="K89" t="s">
+        <v>205</v>
+      </c>
+      <c r="L89" t="s">
+        <v>205</v>
+      </c>
+      <c r="M89" t="s">
+        <v>205</v>
+      </c>
+      <c r="N89" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5076,6 +5772,30 @@
       <c r="F91" t="s">
         <v>205</v>
       </c>
+      <c r="G91" t="s">
+        <v>205</v>
+      </c>
+      <c r="H91" t="s">
+        <v>205</v>
+      </c>
+      <c r="I91" t="s">
+        <v>205</v>
+      </c>
+      <c r="J91" t="s">
+        <v>205</v>
+      </c>
+      <c r="K91" t="s">
+        <v>205</v>
+      </c>
+      <c r="L91" t="s">
+        <v>205</v>
+      </c>
+      <c r="M91" t="s">
+        <v>205</v>
+      </c>
+      <c r="N91" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5272,6 +5992,30 @@
       <c r="F96" t="s">
         <v>205</v>
       </c>
+      <c r="G96" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96" t="s">
+        <v>205</v>
+      </c>
+      <c r="I96" t="s">
+        <v>205</v>
+      </c>
+      <c r="J96" t="s">
+        <v>205</v>
+      </c>
+      <c r="K96" t="s">
+        <v>205</v>
+      </c>
+      <c r="L96" t="s">
+        <v>205</v>
+      </c>
+      <c r="M96" t="s">
+        <v>205</v>
+      </c>
+      <c r="N96" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
@@ -5336,6 +6080,30 @@
       <c r="F98" t="s">
         <v>205</v>
       </c>
+      <c r="G98" t="s">
+        <v>205</v>
+      </c>
+      <c r="H98" t="s">
+        <v>205</v>
+      </c>
+      <c r="I98" t="s">
+        <v>205</v>
+      </c>
+      <c r="J98" t="s">
+        <v>205</v>
+      </c>
+      <c r="K98" t="s">
+        <v>205</v>
+      </c>
+      <c r="L98" t="s">
+        <v>205</v>
+      </c>
+      <c r="M98" t="s">
+        <v>205</v>
+      </c>
+      <c r="N98" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
@@ -5400,6 +6168,30 @@
       <c r="F100" t="s">
         <v>205</v>
       </c>
+      <c r="G100" t="s">
+        <v>205</v>
+      </c>
+      <c r="H100" t="s">
+        <v>205</v>
+      </c>
+      <c r="I100" t="s">
+        <v>205</v>
+      </c>
+      <c r="J100" t="s">
+        <v>205</v>
+      </c>
+      <c r="K100" t="s">
+        <v>205</v>
+      </c>
+      <c r="L100" t="s">
+        <v>205</v>
+      </c>
+      <c r="M100" t="s">
+        <v>205</v>
+      </c>
+      <c r="N100" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
@@ -5464,6 +6256,30 @@
       <c r="F102" t="s">
         <v>205</v>
       </c>
+      <c r="G102" t="s">
+        <v>205</v>
+      </c>
+      <c r="H102" t="s">
+        <v>205</v>
+      </c>
+      <c r="I102" t="s">
+        <v>205</v>
+      </c>
+      <c r="J102" t="s">
+        <v>205</v>
+      </c>
+      <c r="K102" t="s">
+        <v>205</v>
+      </c>
+      <c r="L102" t="s">
+        <v>205</v>
+      </c>
+      <c r="M102" t="s">
+        <v>205</v>
+      </c>
+      <c r="N102" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
@@ -5484,6 +6300,30 @@
       <c r="F103" t="s">
         <v>205</v>
       </c>
+      <c r="G103" t="s">
+        <v>205</v>
+      </c>
+      <c r="H103" t="s">
+        <v>205</v>
+      </c>
+      <c r="I103" t="s">
+        <v>205</v>
+      </c>
+      <c r="J103" t="s">
+        <v>205</v>
+      </c>
+      <c r="K103" t="s">
+        <v>205</v>
+      </c>
+      <c r="L103" t="s">
+        <v>205</v>
+      </c>
+      <c r="M103" t="s">
+        <v>205</v>
+      </c>
+      <c r="N103" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
@@ -5680,6 +6520,30 @@
       <c r="F108" t="s">
         <v>205</v>
       </c>
+      <c r="G108" t="s">
+        <v>205</v>
+      </c>
+      <c r="H108" t="s">
+        <v>205</v>
+      </c>
+      <c r="I108" t="s">
+        <v>205</v>
+      </c>
+      <c r="J108" t="s">
+        <v>205</v>
+      </c>
+      <c r="K108" t="s">
+        <v>205</v>
+      </c>
+      <c r="L108" t="s">
+        <v>205</v>
+      </c>
+      <c r="M108" t="s">
+        <v>205</v>
+      </c>
+      <c r="N108" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5744,6 +6608,30 @@
       <c r="F110" t="s">
         <v>205</v>
       </c>
+      <c r="G110" t="s">
+        <v>205</v>
+      </c>
+      <c r="H110" t="s">
+        <v>205</v>
+      </c>
+      <c r="I110" t="s">
+        <v>205</v>
+      </c>
+      <c r="J110" t="s">
+        <v>205</v>
+      </c>
+      <c r="K110" t="s">
+        <v>205</v>
+      </c>
+      <c r="L110" t="s">
+        <v>205</v>
+      </c>
+      <c r="M110" t="s">
+        <v>205</v>
+      </c>
+      <c r="N110" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5808,6 +6696,30 @@
       <c r="F112" t="s">
         <v>205</v>
       </c>
+      <c r="G112" t="s">
+        <v>205</v>
+      </c>
+      <c r="H112" t="s">
+        <v>205</v>
+      </c>
+      <c r="I112" t="s">
+        <v>205</v>
+      </c>
+      <c r="J112" t="s">
+        <v>205</v>
+      </c>
+      <c r="K112" t="s">
+        <v>205</v>
+      </c>
+      <c r="L112" t="s">
+        <v>205</v>
+      </c>
+      <c r="M112" t="s">
+        <v>205</v>
+      </c>
+      <c r="N112" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
@@ -5828,6 +6740,30 @@
       <c r="F113" t="s">
         <v>205</v>
       </c>
+      <c r="G113" t="s">
+        <v>205</v>
+      </c>
+      <c r="H113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I113" t="s">
+        <v>205</v>
+      </c>
+      <c r="J113" t="s">
+        <v>205</v>
+      </c>
+      <c r="K113" t="s">
+        <v>205</v>
+      </c>
+      <c r="L113" t="s">
+        <v>205</v>
+      </c>
+      <c r="M113" t="s">
+        <v>205</v>
+      </c>
+      <c r="N113" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -5848,6 +6784,30 @@
       <c r="F114" t="s">
         <v>205</v>
       </c>
+      <c r="G114" t="s">
+        <v>205</v>
+      </c>
+      <c r="H114" t="s">
+        <v>205</v>
+      </c>
+      <c r="I114" t="s">
+        <v>205</v>
+      </c>
+      <c r="J114" t="s">
+        <v>205</v>
+      </c>
+      <c r="K114" t="s">
+        <v>205</v>
+      </c>
+      <c r="L114" t="s">
+        <v>205</v>
+      </c>
+      <c r="M114" t="s">
+        <v>205</v>
+      </c>
+      <c r="N114" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
@@ -5868,6 +6828,30 @@
       <c r="F115" t="s">
         <v>205</v>
       </c>
+      <c r="G115" t="s">
+        <v>205</v>
+      </c>
+      <c r="H115" t="s">
+        <v>205</v>
+      </c>
+      <c r="I115" t="s">
+        <v>205</v>
+      </c>
+      <c r="J115" t="s">
+        <v>205</v>
+      </c>
+      <c r="K115" t="s">
+        <v>205</v>
+      </c>
+      <c r="L115" t="s">
+        <v>205</v>
+      </c>
+      <c r="M115" t="s">
+        <v>205</v>
+      </c>
+      <c r="N115" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
@@ -5932,6 +6916,30 @@
       <c r="F117" t="s">
         <v>205</v>
       </c>
+      <c r="G117" t="s">
+        <v>205</v>
+      </c>
+      <c r="H117" t="s">
+        <v>205</v>
+      </c>
+      <c r="I117" t="s">
+        <v>205</v>
+      </c>
+      <c r="J117" t="s">
+        <v>205</v>
+      </c>
+      <c r="K117" t="s">
+        <v>205</v>
+      </c>
+      <c r="L117" t="s">
+        <v>205</v>
+      </c>
+      <c r="M117" t="s">
+        <v>205</v>
+      </c>
+      <c r="N117" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -5996,6 +7004,30 @@
       <c r="F119" t="s">
         <v>205</v>
       </c>
+      <c r="G119" t="s">
+        <v>205</v>
+      </c>
+      <c r="H119" t="s">
+        <v>205</v>
+      </c>
+      <c r="I119" t="s">
+        <v>205</v>
+      </c>
+      <c r="J119" t="s">
+        <v>205</v>
+      </c>
+      <c r="K119" t="s">
+        <v>205</v>
+      </c>
+      <c r="L119" t="s">
+        <v>205</v>
+      </c>
+      <c r="M119" t="s">
+        <v>205</v>
+      </c>
+      <c r="N119" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6104,6 +7136,30 @@
       <c r="F122" t="s">
         <v>205</v>
       </c>
+      <c r="G122" t="s">
+        <v>205</v>
+      </c>
+      <c r="H122" t="s">
+        <v>205</v>
+      </c>
+      <c r="I122" t="s">
+        <v>205</v>
+      </c>
+      <c r="J122" t="s">
+        <v>205</v>
+      </c>
+      <c r="K122" t="s">
+        <v>205</v>
+      </c>
+      <c r="L122" t="s">
+        <v>205</v>
+      </c>
+      <c r="M122" t="s">
+        <v>205</v>
+      </c>
+      <c r="N122" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
@@ -6124,6 +7180,30 @@
       <c r="F123" t="s">
         <v>205</v>
       </c>
+      <c r="G123" t="s">
+        <v>205</v>
+      </c>
+      <c r="H123" t="s">
+        <v>205</v>
+      </c>
+      <c r="I123" t="s">
+        <v>205</v>
+      </c>
+      <c r="J123" t="s">
+        <v>205</v>
+      </c>
+      <c r="K123" t="s">
+        <v>205</v>
+      </c>
+      <c r="L123" t="s">
+        <v>205</v>
+      </c>
+      <c r="M123" t="s">
+        <v>205</v>
+      </c>
+      <c r="N123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6364,6 +7444,30 @@
       <c r="F129" t="s">
         <v>205</v>
       </c>
+      <c r="G129" t="s">
+        <v>205</v>
+      </c>
+      <c r="H129" t="s">
+        <v>205</v>
+      </c>
+      <c r="I129" t="s">
+        <v>205</v>
+      </c>
+      <c r="J129" t="s">
+        <v>205</v>
+      </c>
+      <c r="K129" t="s">
+        <v>205</v>
+      </c>
+      <c r="L129" t="s">
+        <v>205</v>
+      </c>
+      <c r="M129" t="s">
+        <v>205</v>
+      </c>
+      <c r="N129" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6384,6 +7488,30 @@
       <c r="F130" t="s">
         <v>205</v>
       </c>
+      <c r="G130" t="s">
+        <v>205</v>
+      </c>
+      <c r="H130" t="s">
+        <v>205</v>
+      </c>
+      <c r="I130" t="s">
+        <v>205</v>
+      </c>
+      <c r="J130" t="s">
+        <v>205</v>
+      </c>
+      <c r="K130" t="s">
+        <v>205</v>
+      </c>
+      <c r="L130" t="s">
+        <v>205</v>
+      </c>
+      <c r="M130" t="s">
+        <v>205</v>
+      </c>
+      <c r="N130" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
@@ -6448,6 +7576,30 @@
       <c r="F132" t="s">
         <v>205</v>
       </c>
+      <c r="G132" t="s">
+        <v>205</v>
+      </c>
+      <c r="H132" t="s">
+        <v>205</v>
+      </c>
+      <c r="I132" t="s">
+        <v>205</v>
+      </c>
+      <c r="J132" t="s">
+        <v>205</v>
+      </c>
+      <c r="K132" t="s">
+        <v>205</v>
+      </c>
+      <c r="L132" t="s">
+        <v>205</v>
+      </c>
+      <c r="M132" t="s">
+        <v>205</v>
+      </c>
+      <c r="N132" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6732,6 +7884,30 @@
       <c r="F139" t="s">
         <v>205</v>
       </c>
+      <c r="G139" t="s">
+        <v>205</v>
+      </c>
+      <c r="H139" t="s">
+        <v>205</v>
+      </c>
+      <c r="I139" t="s">
+        <v>205</v>
+      </c>
+      <c r="J139" t="s">
+        <v>205</v>
+      </c>
+      <c r="K139" t="s">
+        <v>205</v>
+      </c>
+      <c r="L139" t="s">
+        <v>205</v>
+      </c>
+      <c r="M139" t="s">
+        <v>205</v>
+      </c>
+      <c r="N139" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -7016,6 +8192,30 @@
       <c r="F146" t="s">
         <v>205</v>
       </c>
+      <c r="G146" t="s">
+        <v>205</v>
+      </c>
+      <c r="H146" t="s">
+        <v>205</v>
+      </c>
+      <c r="I146" t="s">
+        <v>205</v>
+      </c>
+      <c r="J146" t="s">
+        <v>205</v>
+      </c>
+      <c r="K146" t="s">
+        <v>205</v>
+      </c>
+      <c r="L146" t="s">
+        <v>205</v>
+      </c>
+      <c r="M146" t="s">
+        <v>205</v>
+      </c>
+      <c r="N146" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
@@ -7036,6 +8236,30 @@
       <c r="F147" t="s">
         <v>205</v>
       </c>
+      <c r="G147" t="s">
+        <v>205</v>
+      </c>
+      <c r="H147" t="s">
+        <v>205</v>
+      </c>
+      <c r="I147" t="s">
+        <v>205</v>
+      </c>
+      <c r="J147" t="s">
+        <v>205</v>
+      </c>
+      <c r="K147" t="s">
+        <v>205</v>
+      </c>
+      <c r="L147" t="s">
+        <v>205</v>
+      </c>
+      <c r="M147" t="s">
+        <v>205</v>
+      </c>
+      <c r="N147" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
@@ -7100,6 +8324,30 @@
       <c r="F149" t="s">
         <v>205</v>
       </c>
+      <c r="G149" t="s">
+        <v>205</v>
+      </c>
+      <c r="H149" t="s">
+        <v>205</v>
+      </c>
+      <c r="I149" t="s">
+        <v>205</v>
+      </c>
+      <c r="J149" t="s">
+        <v>205</v>
+      </c>
+      <c r="K149" t="s">
+        <v>205</v>
+      </c>
+      <c r="L149" t="s">
+        <v>205</v>
+      </c>
+      <c r="M149" t="s">
+        <v>205</v>
+      </c>
+      <c r="N149" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
@@ -7120,6 +8368,30 @@
       <c r="F150" t="s">
         <v>205</v>
       </c>
+      <c r="G150" t="s">
+        <v>205</v>
+      </c>
+      <c r="H150" t="s">
+        <v>205</v>
+      </c>
+      <c r="I150" t="s">
+        <v>205</v>
+      </c>
+      <c r="J150" t="s">
+        <v>205</v>
+      </c>
+      <c r="K150" t="s">
+        <v>205</v>
+      </c>
+      <c r="L150" t="s">
+        <v>205</v>
+      </c>
+      <c r="M150" t="s">
+        <v>205</v>
+      </c>
+      <c r="N150" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7360,6 +8632,30 @@
       <c r="F156" t="s">
         <v>205</v>
       </c>
+      <c r="G156" t="s">
+        <v>205</v>
+      </c>
+      <c r="H156" t="s">
+        <v>205</v>
+      </c>
+      <c r="I156" t="s">
+        <v>205</v>
+      </c>
+      <c r="J156" t="s">
+        <v>205</v>
+      </c>
+      <c r="K156" t="s">
+        <v>205</v>
+      </c>
+      <c r="L156" t="s">
+        <v>205</v>
+      </c>
+      <c r="M156" t="s">
+        <v>205</v>
+      </c>
+      <c r="N156" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7424,6 +8720,30 @@
       <c r="F158" t="s">
         <v>205</v>
       </c>
+      <c r="G158" t="s">
+        <v>205</v>
+      </c>
+      <c r="H158" t="s">
+        <v>205</v>
+      </c>
+      <c r="I158" t="s">
+        <v>205</v>
+      </c>
+      <c r="J158" t="s">
+        <v>205</v>
+      </c>
+      <c r="K158" t="s">
+        <v>205</v>
+      </c>
+      <c r="L158" t="s">
+        <v>205</v>
+      </c>
+      <c r="M158" t="s">
+        <v>205</v>
+      </c>
+      <c r="N158" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
@@ -7532,6 +8852,30 @@
       <c r="F161" t="s">
         <v>205</v>
       </c>
+      <c r="G161" t="s">
+        <v>205</v>
+      </c>
+      <c r="H161" t="s">
+        <v>205</v>
+      </c>
+      <c r="I161" t="s">
+        <v>205</v>
+      </c>
+      <c r="J161" t="s">
+        <v>205</v>
+      </c>
+      <c r="K161" t="s">
+        <v>205</v>
+      </c>
+      <c r="L161" t="s">
+        <v>205</v>
+      </c>
+      <c r="M161" t="s">
+        <v>205</v>
+      </c>
+      <c r="N161" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7684,6 +9028,30 @@
       <c r="F165" t="s">
         <v>205</v>
       </c>
+      <c r="G165" t="s">
+        <v>205</v>
+      </c>
+      <c r="H165" t="s">
+        <v>205</v>
+      </c>
+      <c r="I165" t="s">
+        <v>205</v>
+      </c>
+      <c r="J165" t="s">
+        <v>205</v>
+      </c>
+      <c r="K165" t="s">
+        <v>205</v>
+      </c>
+      <c r="L165" t="s">
+        <v>205</v>
+      </c>
+      <c r="M165" t="s">
+        <v>205</v>
+      </c>
+      <c r="N165" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
@@ -7924,6 +9292,30 @@
       <c r="F171" t="s">
         <v>205</v>
       </c>
+      <c r="G171" t="s">
+        <v>205</v>
+      </c>
+      <c r="H171" t="s">
+        <v>205</v>
+      </c>
+      <c r="I171" t="s">
+        <v>205</v>
+      </c>
+      <c r="J171" t="s">
+        <v>205</v>
+      </c>
+      <c r="K171" t="s">
+        <v>205</v>
+      </c>
+      <c r="L171" t="s">
+        <v>205</v>
+      </c>
+      <c r="M171" t="s">
+        <v>205</v>
+      </c>
+      <c r="N171" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
@@ -8208,6 +9600,30 @@
       <c r="F178" t="s">
         <v>205</v>
       </c>
+      <c r="G178" t="s">
+        <v>205</v>
+      </c>
+      <c r="H178" t="s">
+        <v>205</v>
+      </c>
+      <c r="I178" t="s">
+        <v>205</v>
+      </c>
+      <c r="J178" t="s">
+        <v>205</v>
+      </c>
+      <c r="K178" t="s">
+        <v>205</v>
+      </c>
+      <c r="L178" t="s">
+        <v>205</v>
+      </c>
+      <c r="M178" t="s">
+        <v>205</v>
+      </c>
+      <c r="N178" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8228,6 +9644,30 @@
       <c r="F179" t="s">
         <v>205</v>
       </c>
+      <c r="G179" t="s">
+        <v>205</v>
+      </c>
+      <c r="H179" t="s">
+        <v>205</v>
+      </c>
+      <c r="I179" t="s">
+        <v>205</v>
+      </c>
+      <c r="J179" t="s">
+        <v>205</v>
+      </c>
+      <c r="K179" t="s">
+        <v>205</v>
+      </c>
+      <c r="L179" t="s">
+        <v>205</v>
+      </c>
+      <c r="M179" t="s">
+        <v>205</v>
+      </c>
+      <c r="N179" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8424,6 +9864,30 @@
       <c r="F184" t="s">
         <v>205</v>
       </c>
+      <c r="G184" t="s">
+        <v>205</v>
+      </c>
+      <c r="H184" t="s">
+        <v>205</v>
+      </c>
+      <c r="I184" t="s">
+        <v>205</v>
+      </c>
+      <c r="J184" t="s">
+        <v>205</v>
+      </c>
+      <c r="K184" t="s">
+        <v>205</v>
+      </c>
+      <c r="L184" t="s">
+        <v>205</v>
+      </c>
+      <c r="M184" t="s">
+        <v>205</v>
+      </c>
+      <c r="N184" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
@@ -8576,6 +10040,30 @@
       <c r="F188" t="s">
         <v>205</v>
       </c>
+      <c r="G188" t="s">
+        <v>205</v>
+      </c>
+      <c r="H188" t="s">
+        <v>205</v>
+      </c>
+      <c r="I188" t="s">
+        <v>205</v>
+      </c>
+      <c r="J188" t="s">
+        <v>205</v>
+      </c>
+      <c r="K188" t="s">
+        <v>205</v>
+      </c>
+      <c r="L188" t="s">
+        <v>205</v>
+      </c>
+      <c r="M188" t="s">
+        <v>205</v>
+      </c>
+      <c r="N188" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
@@ -8640,6 +10128,30 @@
       <c r="F190" t="s">
         <v>205</v>
       </c>
+      <c r="G190" t="s">
+        <v>205</v>
+      </c>
+      <c r="H190" t="s">
+        <v>205</v>
+      </c>
+      <c r="I190" t="s">
+        <v>205</v>
+      </c>
+      <c r="J190" t="s">
+        <v>205</v>
+      </c>
+      <c r="K190" t="s">
+        <v>205</v>
+      </c>
+      <c r="L190" t="s">
+        <v>205</v>
+      </c>
+      <c r="M190" t="s">
+        <v>205</v>
+      </c>
+      <c r="N190" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
@@ -8702,6 +10214,30 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
+        <v>205</v>
+      </c>
+      <c r="G192" t="s">
+        <v>205</v>
+      </c>
+      <c r="H192" t="s">
+        <v>205</v>
+      </c>
+      <c r="I192" t="s">
+        <v>205</v>
+      </c>
+      <c r="J192" t="s">
+        <v>205</v>
+      </c>
+      <c r="K192" t="s">
+        <v>205</v>
+      </c>
+      <c r="L192" t="s">
+        <v>205</v>
+      </c>
+      <c r="M192" t="s">
+        <v>205</v>
+      </c>
+      <c r="N192" t="s">
         <v>205</v>
       </c>
     </row>

--- a/sequences/04_retrieval_2.xlsx
+++ b/sequences/04_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>starren</t>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>stimmen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>melden</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>zahlen</t>
   </si>
   <si>
     <t>hupen</t>
   </si>
   <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>legen</t>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>doppeln</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>jubeln</t>
   </si>
   <si>
     <t>trotzen</t>
   </si>
   <si>
-    <t>streifen</t>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>bleiben</t>
   </si>
   <si>
     <t>graben</t>
   </si>
   <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
     <t>rücken</t>
   </si>
   <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>polen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>wärmen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>lockern</t>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>reisen</t>
   </si>
   <si>
     <t>schützen</t>
   </si>
   <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>mauern</t>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>hindern</t>
   </si>
   <si>
     <t>backen</t>
   </si>
   <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>töten</t>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>fahren</t>
   </si>
   <si>
     <t>kriegen</t>
   </si>
   <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>spuren</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>pfeifen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>beten</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>schauen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>frischen</t>
+    <t>werden</t>
   </si>
   <si>
     <t>N/A</t>

--- a/sequences/04_retrieval_2.xlsx
+++ b/sequences/04_retrieval_2.xlsx
@@ -73,1378 +73,1378 @@
     <t>iti</t>
   </si>
   <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>beten</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
     <t>leuchten</t>
   </si>
   <si>
-    <t>klingen</t>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>putzen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>rächen</t>
+  </si>
+  <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>doppeln</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>geben</t>
   </si>
   <si>
     <t>bellen</t>
   </si>
   <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>flehen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>reden</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>essen</t>
+  </si>
+  <si>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>mühen</t>
   </si>
   <si>
     <t>leiten</t>
   </si>
   <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>beten</t>
-  </si>
-  <si>
-    <t>schwören</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>packen</t>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>knarren</t>
   </si>
   <si>
     <t>zeugen</t>
   </si>
   <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>jagen</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>nerven</t>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
   </si>
   <si>
     <t>hoffen</t>
   </si>
   <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>weinen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>pfeifen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>tauchen</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>feiern</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>rächen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>trennen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>weichen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>arten</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>reden</t>
+    <t>bergen</t>
   </si>
   <si>
     <t>mauern</t>
   </si>
   <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>foltern</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>essen</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>haben</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>regnen</t>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
   </si>
   <si>
     <t>face/face007.jpg</t>
   </si>
   <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
     <t>flower/flower030.jpg</t>
   </si>
   <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
     <t>flower/flower002.jpg</t>
   </si>
   <si>
-    <t>none</t>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
   </si>
   <si>
     <t>dog/dog003.jpg</t>
   </si>
   <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
+    <t>dog/dog013.jpg</t>
   </si>
   <si>
     <t>face/face023.jpg</t>
   </si>
   <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
     <t>face/face025.jpg</t>
   </si>
   <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
+    <t>dog</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>house/house109.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog113.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower235.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower142.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog264.jpg</t>
+  </si>
+  <si>
+    <t>house/house169.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower247.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower183.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower154.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog218.jpg</t>
+  </si>
+  <si>
+    <t>house/house222.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower132.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog199.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog181.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower185.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower129.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog117.jpg</t>
+  </si>
+  <si>
+    <t>face/face192.jpg</t>
+  </si>
+  <si>
+    <t>face/face166.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog158.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower111.jpg</t>
+  </si>
+  <si>
+    <t>face/face254.jpg</t>
+  </si>
+  <si>
+    <t>house/house262.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog205.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog112.jpg</t>
+  </si>
+  <si>
+    <t>house/house111.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower248.jpg</t>
+  </si>
+  <si>
+    <t>face/face168.jpg</t>
+  </si>
+  <si>
+    <t>house/house223.jpg</t>
+  </si>
+  <si>
+    <t>house/house190.jpg</t>
+  </si>
+  <si>
+    <t>face/face199.jpg</t>
+  </si>
+  <si>
+    <t>face/face190.jpg</t>
+  </si>
+  <si>
+    <t>house/house258.jpg</t>
+  </si>
+  <si>
+    <t>house/house117.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower179.jpg</t>
+  </si>
+  <si>
+    <t>house/house224.jpg</t>
+  </si>
+  <si>
+    <t>face/face184.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower157.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog151.jpg</t>
+  </si>
+  <si>
+    <t>face/face250.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog142.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower244.jpg</t>
+  </si>
+  <si>
+    <t>house/house114.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower148.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower181.jpg</t>
+  </si>
+  <si>
+    <t>face/face196.jpg</t>
+  </si>
+  <si>
+    <t>house/house097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower150.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog252.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog177.jpg</t>
+  </si>
+  <si>
+    <t>house/house134.jpg</t>
+  </si>
+  <si>
+    <t>face/face203.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog201.jpg</t>
+  </si>
+  <si>
+    <t>house/house104.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog257.jpg</t>
+  </si>
+  <si>
+    <t>house/house187.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog197.jpg</t>
+  </si>
+  <si>
+    <t>face/face140.jpg</t>
+  </si>
+  <si>
+    <t>house/house158.jpg</t>
+  </si>
+  <si>
+    <t>house/house228.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog248.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog107.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog102.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower198.jpg</t>
+  </si>
+  <si>
+    <t>house/house197.jpg</t>
+  </si>
+  <si>
+    <t>face/face106.jpg</t>
+  </si>
+  <si>
+    <t>face/face147.jpg</t>
+  </si>
+  <si>
+    <t>face/face118.jpg</t>
+  </si>
+  <si>
+    <t>house/house129.jpg</t>
+  </si>
+  <si>
+    <t>house/house131.jpg</t>
+  </si>
+  <si>
+    <t>face/face187.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower212.jpg</t>
+  </si>
+  <si>
+    <t>house/house248.jpg</t>
+  </si>
+  <si>
+    <t>face/face097.jpg</t>
+  </si>
+  <si>
+    <t>house/house247.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower219.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower227.jpg</t>
+  </si>
+  <si>
+    <t>face/face237.jpg</t>
+  </si>
+  <si>
+    <t>face/face111.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog262.jpg</t>
+  </si>
+  <si>
+    <t>face/face228.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog190.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower104.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower250.jpg</t>
+  </si>
+  <si>
+    <t>face/face193.jpg</t>
   </si>
   <si>
     <t>dog/dog242.jpg</t>
   </si>
   <si>
+    <t>house/house207.jpg</t>
+  </si>
+  <si>
+    <t>face/face131.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog162.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog137.jpg</t>
+  </si>
+  <si>
+    <t>face/face136.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog182.jpg</t>
+  </si>
+  <si>
+    <t>face/face238.jpg</t>
+  </si>
+  <si>
+    <t>house/house251.jpg</t>
+  </si>
+  <si>
     <t>dog/dog263.jpg</t>
   </si>
   <si>
-    <t>face/face199.jpg</t>
-  </si>
-  <si>
-    <t>face/face111.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower219.jpg</t>
-  </si>
-  <si>
-    <t>house/house262.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog181.jpg</t>
+    <t>house/house119.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog124.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog225.jpg</t>
+  </si>
+  <si>
+    <t>face/face222.jpg</t>
+  </si>
+  <si>
+    <t>house/house196.jpg</t>
+  </si>
+  <si>
+    <t>house/house163.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog222.jpg</t>
+  </si>
+  <si>
+    <t>face/face201.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower152.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog156.jpg</t>
+  </si>
+  <si>
+    <t>house/house157.jpg</t>
+  </si>
+  <si>
+    <t>face/face261.jpg</t>
+  </si>
+  <si>
+    <t>face/face161.jpg</t>
+  </si>
+  <si>
+    <t>face/face248.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower237.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower139.jpg</t>
+  </si>
+  <si>
+    <t>house/house106.jpg</t>
   </si>
   <si>
     <t>dog/dog207.jpg</t>
   </si>
   <si>
-    <t>dog/dog151.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog201.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog182.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower129.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower111.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower150.jpg</t>
+    <t>house/house177.jpg</t>
+  </si>
+  <si>
+    <t>face/face240.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower218.jpg</t>
+  </si>
+  <si>
+    <t>house/house101.jpg</t>
+  </si>
+  <si>
+    <t>face/face164.jpg</t>
+  </si>
+  <si>
+    <t>face/face146.jpg</t>
+  </si>
+  <si>
+    <t>face/face112.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower117.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower170.jpg</t>
   </si>
   <si>
     <t>flower/flower135.jpg</t>
   </si>
   <si>
-    <t>house/house169.jpg</t>
-  </si>
-  <si>
-    <t>face/face136.jpg</t>
-  </si>
-  <si>
-    <t>house/house101.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog177.jpg</t>
-  </si>
-  <si>
-    <t>house/house106.jpg</t>
-  </si>
-  <si>
-    <t>face/face166.jpg</t>
-  </si>
-  <si>
-    <t>house/house247.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower218.jpg</t>
-  </si>
-  <si>
-    <t>house/house158.jpg</t>
-  </si>
-  <si>
-    <t>face/face106.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog190.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower104.jpg</t>
+    <t>house/house204.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower121.jpg</t>
   </si>
   <si>
     <t>flower/flower206.jpg</t>
   </si>
   <si>
-    <t>flower/flower183.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower185.jpg</t>
-  </si>
-  <si>
-    <t>house/house097.jpg</t>
-  </si>
-  <si>
-    <t>face/face201.jpg</t>
-  </si>
-  <si>
-    <t>face/face131.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog257.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower179.jpg</t>
-  </si>
-  <si>
-    <t>house/house222.jpg</t>
-  </si>
-  <si>
-    <t>face/face168.jpg</t>
-  </si>
-  <si>
-    <t>face/face237.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower142.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower121.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower237.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog137.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower117.jpg</t>
-  </si>
-  <si>
-    <t>house/house177.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower248.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower250.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower244.jpg</t>
-  </si>
-  <si>
-    <t>house/house163.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower157.jpg</t>
-  </si>
-  <si>
-    <t>face/face193.jpg</t>
-  </si>
-  <si>
-    <t>house/house134.jpg</t>
+    <t>flower/flower180.jpg</t>
   </si>
   <si>
     <t>dog/dog128.jpg</t>
   </si>
   <si>
-    <t>house/house207.jpg</t>
-  </si>
-  <si>
-    <t>house/house104.jpg</t>
-  </si>
-  <si>
-    <t>house/house258.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog262.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog222.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog112.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog162.jpg</t>
-  </si>
-  <si>
-    <t>house/house187.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower132.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog107.jpg</t>
-  </si>
-  <si>
-    <t>face/face112.jpg</t>
-  </si>
-  <si>
-    <t>house/house129.jpg</t>
-  </si>
-  <si>
-    <t>house/house190.jpg</t>
-  </si>
-  <si>
-    <t>house/house131.jpg</t>
-  </si>
-  <si>
-    <t>face/face146.jpg</t>
-  </si>
-  <si>
-    <t>face/face228.jpg</t>
-  </si>
-  <si>
-    <t>face/face238.jpg</t>
-  </si>
-  <si>
-    <t>house/house111.jpg</t>
-  </si>
-  <si>
-    <t>face/face248.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog225.jpg</t>
-  </si>
-  <si>
-    <t>house/house109.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog142.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog158.jpg</t>
-  </si>
-  <si>
-    <t>face/face192.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog264.jpg</t>
-  </si>
-  <si>
-    <t>house/house204.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower139.jpg</t>
-  </si>
-  <si>
-    <t>house/house228.jpg</t>
-  </si>
-  <si>
-    <t>face/face254.jpg</t>
-  </si>
-  <si>
-    <t>face/face140.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower212.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower180.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog199.jpg</t>
-  </si>
-  <si>
-    <t>face/face164.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog218.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower181.jpg</t>
-  </si>
-  <si>
-    <t>face/face222.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower235.jpg</t>
-  </si>
-  <si>
-    <t>face/face261.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower148.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower198.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog252.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog124.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog102.jpg</t>
-  </si>
-  <si>
-    <t>house/house224.jpg</t>
-  </si>
-  <si>
-    <t>house/house117.jpg</t>
-  </si>
-  <si>
-    <t>house/house251.jpg</t>
-  </si>
-  <si>
-    <t>face/face240.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower247.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower170.jpg</t>
-  </si>
-  <si>
-    <t>house/house157.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower152.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog156.jpg</t>
-  </si>
-  <si>
-    <t>house/house197.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog117.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog113.jpg</t>
-  </si>
-  <si>
-    <t>face/face147.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog248.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower154.jpg</t>
-  </si>
-  <si>
-    <t>face/face196.jpg</t>
-  </si>
-  <si>
-    <t>house/house248.jpg</t>
-  </si>
-  <si>
-    <t>face/face187.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog197.jpg</t>
-  </si>
-  <si>
-    <t>face/face097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower227.jpg</t>
-  </si>
-  <si>
-    <t>face/face190.jpg</t>
-  </si>
-  <si>
-    <t>face/face161.jpg</t>
-  </si>
-  <si>
-    <t>house/house119.jpg</t>
-  </si>
-  <si>
-    <t>house/house114.jpg</t>
-  </si>
-  <si>
-    <t>house/house196.jpg</t>
-  </si>
-  <si>
-    <t>house/house223.jpg</t>
-  </si>
-  <si>
-    <t>face/face184.jpg</t>
-  </si>
-  <si>
-    <t>face/face250.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog205.jpg</t>
-  </si>
-  <si>
-    <t>face/face118.jpg</t>
-  </si>
-  <si>
-    <t>face/face203.jpg</t>
-  </si>
-  <si>
     <t>other/new/uncued</t>
   </si>
   <si>
     <t>other/old/uncued</t>
   </si>
   <si>
+    <t>correct/old/cued</t>
+  </si>
+  <si>
+    <t>same/old/uncued</t>
+  </si>
+  <si>
     <t>correct/old/uncued</t>
-  </si>
-  <si>
-    <t>same/old/uncued</t>
-  </si>
-  <si>
-    <t>correct/old/cued</t>
   </si>
 </sst>
 </file>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="H2" t="s">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="I2" t="s">
         <v>344</v>
@@ -1911,13 +1911,13 @@
         <v>476</v>
       </c>
       <c r="O2" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="P2" t="s">
         <v>475</v>
       </c>
       <c r="Q2" t="s">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="R2" t="s">
         <v>473</v>
@@ -1946,19 +1946,19 @@
         <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="I3" t="s">
         <v>345</v>
       </c>
       <c r="J3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K3" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="L3" t="s">
         <v>473</v>
@@ -1967,7 +1967,7 @@
         <v>212</v>
       </c>
       <c r="N3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O3" t="s">
         <v>345</v>
@@ -1976,7 +1976,7 @@
         <v>472</v>
       </c>
       <c r="Q3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R3" t="s">
         <v>475</v>
@@ -1999,22 +1999,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="I4" t="s">
         <v>346</v>
       </c>
       <c r="J4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K4" t="s">
         <v>213</v>
@@ -2023,7 +2023,7 @@
         <v>474</v>
       </c>
       <c r="M4" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N4" t="s">
         <v>473</v>
@@ -2035,7 +2035,7 @@
         <v>472</v>
       </c>
       <c r="Q4" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="R4" t="s">
         <v>475</v>
@@ -2182,16 +2182,16 @@
         <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="H7" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="I7" t="s">
         <v>347</v>
       </c>
       <c r="J7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K7" t="s">
         <v>347</v>
@@ -2203,16 +2203,16 @@
         <v>215</v>
       </c>
       <c r="N7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O7" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="P7" t="s">
         <v>473</v>
       </c>
       <c r="Q7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="R7" t="s">
         <v>475</v>
@@ -2229,37 +2229,37 @@
         <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>216</v>
       </c>
       <c r="G8" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I8" t="s">
         <v>348</v>
       </c>
       <c r="J8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K8" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="L8" t="s">
         <v>475</v>
       </c>
       <c r="M8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N8" t="s">
         <v>473</v>
@@ -2288,28 +2288,28 @@
         <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>217</v>
       </c>
       <c r="G9" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="H9" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="I9" t="s">
         <v>349</v>
       </c>
       <c r="J9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K9" t="s">
         <v>217</v>
@@ -2324,13 +2324,13 @@
         <v>472</v>
       </c>
       <c r="O9" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="P9" t="s">
         <v>473</v>
       </c>
       <c r="Q9" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="R9" t="s">
         <v>475</v>
@@ -2583,31 +2583,31 @@
         <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>218</v>
       </c>
       <c r="G14" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="H14" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="I14" t="s">
         <v>350</v>
       </c>
       <c r="J14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K14" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="L14" t="s">
         <v>475</v>
@@ -2619,7 +2619,7 @@
         <v>476</v>
       </c>
       <c r="O14" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="P14" t="s">
         <v>473</v>
@@ -2654,25 +2654,25 @@
         <v>219</v>
       </c>
       <c r="G15" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="H15" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="I15" t="s">
         <v>351</v>
       </c>
       <c r="J15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K15" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="L15" t="s">
         <v>475</v>
       </c>
       <c r="M15" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="N15" t="s">
         <v>473</v>
@@ -2687,7 +2687,7 @@
         <v>219</v>
       </c>
       <c r="R15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S15">
         <v>1.248146508266157</v>
@@ -2701,28 +2701,28 @@
         <v>220</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
         <v>220</v>
       </c>
       <c r="G16" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="H16" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="I16" t="s">
         <v>352</v>
       </c>
       <c r="J16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K16" t="s">
         <v>220</v>
@@ -2731,7 +2731,7 @@
         <v>476</v>
       </c>
       <c r="M16" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="N16" t="s">
         <v>473</v>
@@ -2743,7 +2743,7 @@
         <v>472</v>
       </c>
       <c r="Q16" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="R16" t="s">
         <v>475</v>
@@ -2760,7 +2760,7 @@
         <v>221</v>
       </c>
       <c r="C17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>221</v>
       </c>
       <c r="G17" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H17" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="I17" t="s">
         <v>353</v>
       </c>
       <c r="J17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K17" t="s">
         <v>353</v>
@@ -2790,13 +2790,13 @@
         <v>472</v>
       </c>
       <c r="M17" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="N17" t="s">
         <v>473</v>
       </c>
       <c r="O17" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P17" t="s">
         <v>475</v>
@@ -2805,7 +2805,7 @@
         <v>221</v>
       </c>
       <c r="R17" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S17">
         <v>1.235722092517653</v>
@@ -2878,22 +2878,22 @@
         <v>222</v>
       </c>
       <c r="C19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
         <v>222</v>
       </c>
       <c r="G19" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="H19" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="I19" t="s">
         <v>354</v>
@@ -2908,13 +2908,13 @@
         <v>472</v>
       </c>
       <c r="M19" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="N19" t="s">
         <v>475</v>
       </c>
       <c r="O19" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="P19" t="s">
         <v>473</v>
@@ -3173,7 +3173,7 @@
         <v>223</v>
       </c>
       <c r="C24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3185,16 +3185,16 @@
         <v>223</v>
       </c>
       <c r="G24" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="H24" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="I24" t="s">
         <v>355</v>
       </c>
       <c r="J24" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K24" t="s">
         <v>355</v>
@@ -3203,13 +3203,13 @@
         <v>472</v>
       </c>
       <c r="M24" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="N24" t="s">
         <v>473</v>
       </c>
       <c r="O24" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="P24" t="s">
         <v>475</v>
@@ -3218,7 +3218,7 @@
         <v>223</v>
       </c>
       <c r="R24" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S24">
         <v>1.009113775469019</v>
@@ -3232,7 +3232,7 @@
         <v>224</v>
       </c>
       <c r="C25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3244,19 +3244,19 @@
         <v>224</v>
       </c>
       <c r="G25" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="H25" t="s">
-        <v>339</v>
+        <v>275</v>
       </c>
       <c r="I25" t="s">
         <v>356</v>
       </c>
       <c r="J25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K25" t="s">
-        <v>339</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s">
         <v>473</v>
@@ -3271,10 +3271,10 @@
         <v>224</v>
       </c>
       <c r="P25" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q25" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="R25" t="s">
         <v>475</v>
@@ -3350,7 +3350,7 @@
         <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -3362,19 +3362,19 @@
         <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="H27" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="I27" t="s">
         <v>357</v>
       </c>
       <c r="J27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K27" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s">
         <v>473</v>
@@ -3389,10 +3389,10 @@
         <v>225</v>
       </c>
       <c r="P27" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q27" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="R27" t="s">
         <v>475</v>
@@ -3468,7 +3468,7 @@
         <v>226</v>
       </c>
       <c r="C29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>226</v>
       </c>
       <c r="G29" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="H29" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="I29" t="s">
         <v>358</v>
       </c>
       <c r="J29" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K29" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s">
         <v>473</v>
@@ -3504,7 +3504,7 @@
         <v>472</v>
       </c>
       <c r="O29" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="P29" t="s">
         <v>475</v>
@@ -3513,7 +3513,7 @@
         <v>226</v>
       </c>
       <c r="R29" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S29">
         <v>1.141688572052654</v>
@@ -3527,7 +3527,7 @@
         <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>227</v>
       </c>
       <c r="G30" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="H30" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="I30" t="s">
         <v>359</v>
@@ -3551,13 +3551,13 @@
         <v>343</v>
       </c>
       <c r="K30" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s">
         <v>473</v>
       </c>
       <c r="M30" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s">
         <v>475</v>
@@ -3566,7 +3566,7 @@
         <v>227</v>
       </c>
       <c r="P30" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q30" t="s">
         <v>359</v>
@@ -3586,7 +3586,7 @@
         <v>228</v>
       </c>
       <c r="C31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3598,10 +3598,10 @@
         <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="H31" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="I31" t="s">
         <v>360</v>
@@ -3613,10 +3613,10 @@
         <v>228</v>
       </c>
       <c r="L31" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M31" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="N31" t="s">
         <v>473</v>
@@ -3628,7 +3628,7 @@
         <v>472</v>
       </c>
       <c r="Q31" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="R31" t="s">
         <v>475</v>
@@ -3651,22 +3651,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
         <v>229</v>
       </c>
       <c r="G32" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="H32" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="I32" t="s">
         <v>361</v>
       </c>
       <c r="J32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K32" t="s">
         <v>361</v>
@@ -3675,7 +3675,7 @@
         <v>472</v>
       </c>
       <c r="M32" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="N32" t="s">
         <v>473</v>
@@ -3687,7 +3687,7 @@
         <v>476</v>
       </c>
       <c r="Q32" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="R32" t="s">
         <v>475</v>
@@ -3704,37 +3704,37 @@
         <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>230</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>308</v>
       </c>
       <c r="H33" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="I33" t="s">
         <v>362</v>
       </c>
       <c r="J33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K33" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s">
         <v>473</v>
       </c>
       <c r="M33" t="s">
-        <v>227</v>
+        <v>308</v>
       </c>
       <c r="N33" t="s">
         <v>475</v>
@@ -3822,28 +3822,28 @@
         <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>231</v>
       </c>
       <c r="G35" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="I35" t="s">
         <v>363</v>
       </c>
       <c r="J35" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K35" t="s">
         <v>231</v>
@@ -3858,13 +3858,13 @@
         <v>472</v>
       </c>
       <c r="O35" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P35" t="s">
         <v>475</v>
       </c>
       <c r="Q35" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="R35" t="s">
         <v>473</v>
@@ -3893,16 +3893,16 @@
         <v>232</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H36" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="I36" t="s">
         <v>364</v>
       </c>
       <c r="J36" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s">
         <v>364</v>
@@ -3914,16 +3914,16 @@
         <v>232</v>
       </c>
       <c r="N36" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O36" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="P36" t="s">
         <v>473</v>
       </c>
       <c r="Q36" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="R36" t="s">
         <v>475</v>
@@ -3940,7 +3940,7 @@
         <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>233</v>
       </c>
       <c r="G37" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H37" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I37" t="s">
         <v>365</v>
       </c>
       <c r="J37" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K37" t="s">
         <v>365</v>
@@ -3970,13 +3970,13 @@
         <v>472</v>
       </c>
       <c r="M37" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N37" t="s">
         <v>473</v>
       </c>
       <c r="O37" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="P37" t="s">
         <v>475</v>
@@ -3985,7 +3985,7 @@
         <v>233</v>
       </c>
       <c r="R37" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S37">
         <v>1.041221283684111</v>
@@ -3999,37 +3999,37 @@
         <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>234</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="H38" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="I38" t="s">
         <v>366</v>
       </c>
       <c r="J38" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K38" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s">
         <v>475</v>
       </c>
       <c r="M38" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="N38" t="s">
         <v>473</v>
@@ -4058,7 +4058,7 @@
         <v>235</v>
       </c>
       <c r="C39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -4070,22 +4070,22 @@
         <v>235</v>
       </c>
       <c r="G39" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="H39" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="I39" t="s">
         <v>367</v>
       </c>
       <c r="J39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K39" t="s">
         <v>235</v>
       </c>
       <c r="L39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M39" t="s">
         <v>367</v>
@@ -4094,13 +4094,13 @@
         <v>472</v>
       </c>
       <c r="O39" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="P39" t="s">
         <v>473</v>
       </c>
       <c r="Q39" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="R39" t="s">
         <v>475</v>
@@ -4129,10 +4129,10 @@
         <v>236</v>
       </c>
       <c r="G40" t="s">
-        <v>231</v>
+        <v>330</v>
       </c>
       <c r="H40" t="s">
-        <v>251</v>
+        <v>334</v>
       </c>
       <c r="I40" t="s">
         <v>368</v>
@@ -4141,7 +4141,7 @@
         <v>340</v>
       </c>
       <c r="K40" t="s">
-        <v>231</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s">
         <v>475</v>
@@ -4150,10 +4150,10 @@
         <v>236</v>
       </c>
       <c r="N40" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O40" t="s">
-        <v>251</v>
+        <v>334</v>
       </c>
       <c r="P40" t="s">
         <v>473</v>
@@ -4353,7 +4353,7 @@
         <v>237</v>
       </c>
       <c r="C44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>237</v>
       </c>
       <c r="G44" t="s">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="H44" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="I44" t="s">
         <v>369</v>
@@ -4386,16 +4386,16 @@
         <v>237</v>
       </c>
       <c r="N44" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O44" t="s">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="P44" t="s">
         <v>475</v>
       </c>
       <c r="Q44" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="R44" t="s">
         <v>473</v>
@@ -4412,7 +4412,7 @@
         <v>238</v>
       </c>
       <c r="C45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4424,22 +4424,22 @@
         <v>238</v>
       </c>
       <c r="G45" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="H45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I45" t="s">
         <v>370</v>
       </c>
       <c r="J45" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K45" t="s">
         <v>238</v>
       </c>
       <c r="L45" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M45" t="s">
         <v>370</v>
@@ -4448,13 +4448,13 @@
         <v>472</v>
       </c>
       <c r="O45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P45" t="s">
         <v>473</v>
       </c>
       <c r="Q45" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="R45" t="s">
         <v>475</v>
@@ -4471,7 +4471,7 @@
         <v>239</v>
       </c>
       <c r="C46" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -4483,10 +4483,10 @@
         <v>239</v>
       </c>
       <c r="G46" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="H46" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I46" t="s">
         <v>371</v>
@@ -4495,13 +4495,13 @@
         <v>341</v>
       </c>
       <c r="K46" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s">
         <v>475</v>
       </c>
       <c r="M46" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="N46" t="s">
         <v>473</v>
@@ -4516,7 +4516,7 @@
         <v>239</v>
       </c>
       <c r="R46" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S46">
         <v>1.070674140480481</v>
@@ -4530,7 +4530,7 @@
         <v>240</v>
       </c>
       <c r="C47" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4542,19 +4542,19 @@
         <v>240</v>
       </c>
       <c r="G47" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="H47" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="I47" t="s">
         <v>372</v>
       </c>
       <c r="J47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K47" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="L47" t="s">
         <v>475</v>
@@ -4569,10 +4569,10 @@
         <v>240</v>
       </c>
       <c r="P47" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q47" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="R47" t="s">
         <v>473</v>
@@ -4648,31 +4648,31 @@
         <v>241</v>
       </c>
       <c r="C49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>241</v>
       </c>
       <c r="G49" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="H49" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="I49" t="s">
         <v>373</v>
       </c>
       <c r="J49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K49" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="L49" t="s">
         <v>475</v>
@@ -4684,7 +4684,7 @@
         <v>474</v>
       </c>
       <c r="O49" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="P49" t="s">
         <v>473</v>
@@ -4719,19 +4719,19 @@
         <v>242</v>
       </c>
       <c r="G50" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="H50" t="s">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="I50" t="s">
         <v>374</v>
       </c>
       <c r="J50" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K50" t="s">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="L50" t="s">
         <v>473</v>
@@ -4740,10 +4740,10 @@
         <v>242</v>
       </c>
       <c r="N50" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O50" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="P50" t="s">
         <v>475</v>
@@ -4766,7 +4766,7 @@
         <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -4778,25 +4778,25 @@
         <v>243</v>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="H51" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="I51" t="s">
         <v>375</v>
       </c>
       <c r="J51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K51" t="s">
         <v>243</v>
       </c>
       <c r="L51" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M51" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="N51" t="s">
         <v>475</v>
@@ -4808,7 +4808,7 @@
         <v>472</v>
       </c>
       <c r="Q51" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="R51" t="s">
         <v>473</v>
@@ -4825,19 +4825,19 @@
         <v>244</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
         <v>244</v>
       </c>
       <c r="G52" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="H52" t="s">
         <v>272</v>
@@ -4846,7 +4846,7 @@
         <v>376</v>
       </c>
       <c r="J52" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K52" t="s">
         <v>244</v>
@@ -4861,7 +4861,7 @@
         <v>472</v>
       </c>
       <c r="O52" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="P52" t="s">
         <v>475</v>
@@ -4884,22 +4884,22 @@
         <v>245</v>
       </c>
       <c r="C53" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>245</v>
       </c>
       <c r="G53" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="H53" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="I53" t="s">
         <v>377</v>
@@ -4914,13 +4914,13 @@
         <v>474</v>
       </c>
       <c r="M53" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="N53" t="s">
         <v>475</v>
       </c>
       <c r="O53" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P53" t="s">
         <v>473</v>
@@ -5014,19 +5014,19 @@
         <v>246</v>
       </c>
       <c r="G55" t="s">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="H55" t="s">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="I55" t="s">
         <v>378</v>
       </c>
       <c r="J55" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K55" t="s">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s">
         <v>473</v>
@@ -5035,7 +5035,7 @@
         <v>246</v>
       </c>
       <c r="N55" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O55" t="s">
         <v>378</v>
@@ -5044,7 +5044,7 @@
         <v>472</v>
       </c>
       <c r="Q55" t="s">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="R55" t="s">
         <v>475</v>
@@ -5061,31 +5061,31 @@
         <v>247</v>
       </c>
       <c r="C56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>247</v>
       </c>
       <c r="G56" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="H56" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="I56" t="s">
         <v>379</v>
       </c>
       <c r="J56" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K56" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="L56" t="s">
         <v>473</v>
@@ -5097,7 +5097,7 @@
         <v>474</v>
       </c>
       <c r="O56" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="P56" t="s">
         <v>475</v>
@@ -5120,7 +5120,7 @@
         <v>248</v>
       </c>
       <c r="C57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -5132,25 +5132,25 @@
         <v>248</v>
       </c>
       <c r="G57" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="H57" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="I57" t="s">
         <v>380</v>
       </c>
       <c r="J57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K57" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="L57" t="s">
         <v>475</v>
       </c>
       <c r="M57" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="N57" t="s">
         <v>473</v>
@@ -5165,7 +5165,7 @@
         <v>248</v>
       </c>
       <c r="R57" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S57">
         <v>1.026298872829245</v>
@@ -5179,28 +5179,28 @@
         <v>249</v>
       </c>
       <c r="C58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="s">
         <v>249</v>
       </c>
       <c r="G58" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="H58" t="s">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="I58" t="s">
         <v>381</v>
       </c>
       <c r="J58" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K58" t="s">
         <v>249</v>
@@ -5215,13 +5215,13 @@
         <v>472</v>
       </c>
       <c r="O58" t="s">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="P58" t="s">
         <v>473</v>
       </c>
       <c r="Q58" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="R58" t="s">
         <v>475</v>
@@ -5238,28 +5238,28 @@
         <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>250</v>
       </c>
       <c r="G59" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="H59" t="s">
-        <v>324</v>
+        <v>233</v>
       </c>
       <c r="I59" t="s">
         <v>382</v>
       </c>
       <c r="J59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K59" t="s">
         <v>382</v>
@@ -5268,7 +5268,7 @@
         <v>472</v>
       </c>
       <c r="M59" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="N59" t="s">
         <v>475</v>
@@ -5280,7 +5280,7 @@
         <v>474</v>
       </c>
       <c r="Q59" t="s">
-        <v>324</v>
+        <v>233</v>
       </c>
       <c r="R59" t="s">
         <v>473</v>
@@ -5303,16 +5303,16 @@
         <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>251</v>
       </c>
       <c r="G60" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
       <c r="H60" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="I60" t="s">
         <v>383</v>
@@ -5327,13 +5327,13 @@
         <v>472</v>
       </c>
       <c r="M60" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
       <c r="N60" t="s">
         <v>475</v>
       </c>
       <c r="O60" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="P60" t="s">
         <v>473</v>
@@ -5415,7 +5415,7 @@
         <v>252</v>
       </c>
       <c r="C62" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -5427,25 +5427,25 @@
         <v>252</v>
       </c>
       <c r="G62" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="H62" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="I62" t="s">
         <v>384</v>
       </c>
       <c r="J62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K62" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="L62" t="s">
         <v>475</v>
       </c>
       <c r="M62" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="N62" t="s">
         <v>473</v>
@@ -5460,7 +5460,7 @@
         <v>252</v>
       </c>
       <c r="R62" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S62">
         <v>1.069995777278648</v>
@@ -5480,31 +5480,31 @@
         <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="s">
         <v>253</v>
       </c>
       <c r="G63" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="H63" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I63" t="s">
         <v>385</v>
       </c>
       <c r="J63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K63" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="L63" t="s">
         <v>475</v>
       </c>
       <c r="M63" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="N63" t="s">
         <v>473</v>
@@ -5533,28 +5533,28 @@
         <v>254</v>
       </c>
       <c r="C64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>254</v>
       </c>
       <c r="G64" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="H64" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I64" t="s">
         <v>386</v>
       </c>
       <c r="J64" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K64" t="s">
         <v>254</v>
@@ -5563,13 +5563,13 @@
         <v>474</v>
       </c>
       <c r="M64" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="N64" t="s">
         <v>475</v>
       </c>
       <c r="O64" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="P64" t="s">
         <v>473</v>
@@ -5604,10 +5604,10 @@
         <v>255</v>
       </c>
       <c r="G65" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="H65" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="I65" t="s">
         <v>387</v>
@@ -5616,13 +5616,13 @@
         <v>343</v>
       </c>
       <c r="K65" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="L65" t="s">
         <v>473</v>
       </c>
       <c r="M65" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="N65" t="s">
         <v>475</v>
@@ -5631,7 +5631,7 @@
         <v>255</v>
       </c>
       <c r="P65" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q65" t="s">
         <v>387</v>
@@ -5651,7 +5651,7 @@
         <v>256</v>
       </c>
       <c r="C66" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -5663,25 +5663,25 @@
         <v>256</v>
       </c>
       <c r="G66" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="I66" t="s">
         <v>388</v>
       </c>
       <c r="J66" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K66" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="L66" t="s">
         <v>475</v>
       </c>
       <c r="M66" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="N66" t="s">
         <v>473</v>
@@ -5696,7 +5696,7 @@
         <v>256</v>
       </c>
       <c r="R66" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S66">
         <v>1.258727952118067</v>
@@ -5710,7 +5710,7 @@
         <v>257</v>
       </c>
       <c r="C67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -5722,10 +5722,10 @@
         <v>257</v>
       </c>
       <c r="G67" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="I67" t="s">
         <v>389</v>
@@ -5734,7 +5734,7 @@
         <v>341</v>
       </c>
       <c r="K67" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="L67" t="s">
         <v>473</v>
@@ -5743,7 +5743,7 @@
         <v>257</v>
       </c>
       <c r="N67" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O67" t="s">
         <v>389</v>
@@ -5752,7 +5752,7 @@
         <v>472</v>
       </c>
       <c r="Q67" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="R67" t="s">
         <v>475</v>
@@ -5828,28 +5828,28 @@
         <v>258</v>
       </c>
       <c r="C69" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
         <v>258</v>
       </c>
       <c r="G69" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H69" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="I69" t="s">
         <v>390</v>
       </c>
       <c r="J69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K69" t="s">
         <v>258</v>
@@ -5864,13 +5864,13 @@
         <v>472</v>
       </c>
       <c r="O69" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="P69" t="s">
         <v>473</v>
       </c>
       <c r="Q69" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="R69" t="s">
         <v>475</v>
@@ -5887,22 +5887,22 @@
         <v>259</v>
       </c>
       <c r="C70" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
         <v>259</v>
       </c>
       <c r="G70" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="H70" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="I70" t="s">
         <v>391</v>
@@ -5917,7 +5917,7 @@
         <v>476</v>
       </c>
       <c r="M70" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="N70" t="s">
         <v>475</v>
@@ -5929,7 +5929,7 @@
         <v>472</v>
       </c>
       <c r="Q70" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="R70" t="s">
         <v>473</v>
@@ -5946,37 +5946,37 @@
         <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
         <v>260</v>
       </c>
       <c r="G71" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="H71" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="I71" t="s">
         <v>392</v>
       </c>
       <c r="J71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K71" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="L71" t="s">
         <v>473</v>
       </c>
       <c r="M71" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="N71" t="s">
         <v>475</v>
@@ -6076,10 +6076,10 @@
         <v>261</v>
       </c>
       <c r="G73" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c r="H73" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="I73" t="s">
         <v>393</v>
@@ -6088,13 +6088,13 @@
         <v>340</v>
       </c>
       <c r="K73" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c r="L73" t="s">
         <v>475</v>
       </c>
       <c r="M73" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="N73" t="s">
         <v>473</v>
@@ -6103,7 +6103,7 @@
         <v>261</v>
       </c>
       <c r="P73" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q73" t="s">
         <v>393</v>
@@ -6135,7 +6135,7 @@
         <v>262</v>
       </c>
       <c r="G74" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H74" t="s">
         <v>257</v>
@@ -6144,7 +6144,7 @@
         <v>394</v>
       </c>
       <c r="J74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K74" t="s">
         <v>394</v>
@@ -6153,7 +6153,7 @@
         <v>472</v>
       </c>
       <c r="M74" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="N74" t="s">
         <v>475</v>
@@ -6168,7 +6168,7 @@
         <v>262</v>
       </c>
       <c r="R74" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S74">
         <v>1.39430468515129</v>
@@ -6182,7 +6182,7 @@
         <v>263</v>
       </c>
       <c r="C75" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -6194,19 +6194,19 @@
         <v>263</v>
       </c>
       <c r="G75" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="H75" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="I75" t="s">
         <v>395</v>
       </c>
       <c r="J75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K75" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="L75" t="s">
         <v>475</v>
@@ -6215,7 +6215,7 @@
         <v>263</v>
       </c>
       <c r="N75" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O75" t="s">
         <v>395</v>
@@ -6224,7 +6224,7 @@
         <v>472</v>
       </c>
       <c r="Q75" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="R75" t="s">
         <v>473</v>
@@ -6241,7 +6241,7 @@
         <v>264</v>
       </c>
       <c r="C76" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -6253,19 +6253,19 @@
         <v>264</v>
       </c>
       <c r="G76" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I76" t="s">
         <v>396</v>
       </c>
       <c r="J76" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K76" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L76" t="s">
         <v>475</v>
@@ -6277,7 +6277,7 @@
         <v>472</v>
       </c>
       <c r="O76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P76" t="s">
         <v>473</v>
@@ -6286,7 +6286,7 @@
         <v>264</v>
       </c>
       <c r="R76" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S76">
         <v>1.134449763486476</v>
@@ -6359,37 +6359,37 @@
         <v>265</v>
       </c>
       <c r="C78" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>265</v>
       </c>
       <c r="G78" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="I78" t="s">
         <v>397</v>
       </c>
       <c r="J78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K78" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="L78" t="s">
         <v>475</v>
       </c>
       <c r="M78" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="N78" t="s">
         <v>473</v>
@@ -6418,28 +6418,28 @@
         <v>266</v>
       </c>
       <c r="C79" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>266</v>
       </c>
       <c r="G79" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="H79" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="I79" t="s">
         <v>398</v>
       </c>
       <c r="J79" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K79" t="s">
         <v>398</v>
@@ -6454,13 +6454,13 @@
         <v>474</v>
       </c>
       <c r="O79" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="P79" t="s">
         <v>475</v>
       </c>
       <c r="Q79" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="R79" t="s">
         <v>473</v>
@@ -6483,16 +6483,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="s">
         <v>267</v>
       </c>
       <c r="G80" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="H80" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="I80" t="s">
         <v>399</v>
@@ -6501,7 +6501,7 @@
         <v>342</v>
       </c>
       <c r="K80" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="L80" t="s">
         <v>473</v>
@@ -6519,7 +6519,7 @@
         <v>476</v>
       </c>
       <c r="Q80" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="R80" t="s">
         <v>475</v>
@@ -6536,7 +6536,7 @@
         <v>268</v>
       </c>
       <c r="C81" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -6548,16 +6548,16 @@
         <v>268</v>
       </c>
       <c r="G81" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="H81" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="I81" t="s">
         <v>400</v>
       </c>
       <c r="J81" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K81" t="s">
         <v>400</v>
@@ -6569,16 +6569,16 @@
         <v>268</v>
       </c>
       <c r="N81" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O81" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="P81" t="s">
         <v>475</v>
       </c>
       <c r="Q81" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="R81" t="s">
         <v>473</v>
@@ -6595,7 +6595,7 @@
         <v>269</v>
       </c>
       <c r="C82" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -6607,19 +6607,19 @@
         <v>269</v>
       </c>
       <c r="G82" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="H82" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="I82" t="s">
         <v>401</v>
       </c>
       <c r="J82" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K82" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="L82" t="s">
         <v>473</v>
@@ -6634,10 +6634,10 @@
         <v>269</v>
       </c>
       <c r="P82" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q82" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="R82" t="s">
         <v>475</v>
@@ -6772,7 +6772,7 @@
         <v>270</v>
       </c>
       <c r="C85" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -6784,10 +6784,10 @@
         <v>270</v>
       </c>
       <c r="G85" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="H85" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="I85" t="s">
         <v>402</v>
@@ -6802,13 +6802,13 @@
         <v>472</v>
       </c>
       <c r="M85" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="N85" t="s">
         <v>473</v>
       </c>
       <c r="O85" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="P85" t="s">
         <v>475</v>
@@ -6817,7 +6817,7 @@
         <v>270</v>
       </c>
       <c r="R85" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S85">
         <v>1.074267992234439</v>
@@ -6831,7 +6831,7 @@
         <v>271</v>
       </c>
       <c r="C86" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -6843,31 +6843,31 @@
         <v>271</v>
       </c>
       <c r="G86" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="H86" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I86" t="s">
         <v>403</v>
       </c>
       <c r="J86" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K86" t="s">
         <v>271</v>
       </c>
       <c r="L86" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M86" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="N86" t="s">
         <v>475</v>
       </c>
       <c r="O86" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="P86" t="s">
         <v>473</v>
@@ -6890,37 +6890,37 @@
         <v>272</v>
       </c>
       <c r="C87" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
         <v>272</v>
       </c>
       <c r="G87" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="H87" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I87" t="s">
         <v>404</v>
       </c>
       <c r="J87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K87" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="L87" t="s">
         <v>473</v>
       </c>
       <c r="M87" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="N87" t="s">
         <v>475</v>
@@ -6949,7 +6949,7 @@
         <v>273</v>
       </c>
       <c r="C88" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -6961,31 +6961,31 @@
         <v>273</v>
       </c>
       <c r="G88" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="H88" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="I88" t="s">
         <v>405</v>
       </c>
       <c r="J88" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K88" t="s">
         <v>273</v>
       </c>
       <c r="L88" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M88" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="N88" t="s">
         <v>475</v>
       </c>
       <c r="O88" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="P88" t="s">
         <v>473</v>
@@ -7008,22 +7008,22 @@
         <v>274</v>
       </c>
       <c r="C89" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="s">
         <v>274</v>
       </c>
       <c r="G89" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="H89" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="I89" t="s">
         <v>406</v>
@@ -7038,7 +7038,7 @@
         <v>472</v>
       </c>
       <c r="M89" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="N89" t="s">
         <v>475</v>
@@ -7050,7 +7050,7 @@
         <v>476</v>
       </c>
       <c r="Q89" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="R89" t="s">
         <v>473</v>
@@ -7191,16 +7191,16 @@
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="s">
         <v>275</v>
       </c>
       <c r="G92" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="H92" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="I92" t="s">
         <v>407</v>
@@ -7215,13 +7215,13 @@
         <v>476</v>
       </c>
       <c r="M92" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="N92" t="s">
         <v>473</v>
       </c>
       <c r="O92" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="P92" t="s">
         <v>475</v>
@@ -7244,7 +7244,7 @@
         <v>276</v>
       </c>
       <c r="C93" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -7256,19 +7256,19 @@
         <v>276</v>
       </c>
       <c r="G93" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="H93" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="I93" t="s">
         <v>408</v>
       </c>
       <c r="J93" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K93" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="L93" t="s">
         <v>475</v>
@@ -7277,7 +7277,7 @@
         <v>276</v>
       </c>
       <c r="N93" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O93" t="s">
         <v>408</v>
@@ -7286,7 +7286,7 @@
         <v>472</v>
       </c>
       <c r="Q93" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="R93" t="s">
         <v>473</v>
@@ -7554,13 +7554,13 @@
         <v>242</v>
       </c>
       <c r="H98" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="I98" t="s">
         <v>409</v>
       </c>
       <c r="J98" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K98" t="s">
         <v>409</v>
@@ -7569,7 +7569,7 @@
         <v>472</v>
       </c>
       <c r="M98" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="N98" t="s">
         <v>473</v>
@@ -7578,7 +7578,7 @@
         <v>277</v>
       </c>
       <c r="P98" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q98" t="s">
         <v>242</v>
@@ -7598,7 +7598,7 @@
         <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>278</v>
       </c>
       <c r="G99" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="H99" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="I99" t="s">
         <v>410</v>
       </c>
       <c r="J99" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K99" t="s">
         <v>410</v>
@@ -7631,16 +7631,16 @@
         <v>278</v>
       </c>
       <c r="N99" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O99" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="P99" t="s">
         <v>473</v>
       </c>
       <c r="Q99" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R99" t="s">
         <v>475</v>
@@ -7657,7 +7657,7 @@
         <v>279</v>
       </c>
       <c r="C100" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -7669,16 +7669,16 @@
         <v>279</v>
       </c>
       <c r="G100" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="H100" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I100" t="s">
         <v>411</v>
       </c>
       <c r="J100" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K100" t="s">
         <v>411</v>
@@ -7687,7 +7687,7 @@
         <v>472</v>
       </c>
       <c r="M100" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="N100" t="s">
         <v>473</v>
@@ -7696,10 +7696,10 @@
         <v>279</v>
       </c>
       <c r="P100" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q100" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="R100" t="s">
         <v>475</v>
@@ -7716,7 +7716,7 @@
         <v>280</v>
       </c>
       <c r="C101" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -7728,22 +7728,22 @@
         <v>280</v>
       </c>
       <c r="G101" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="H101" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
       <c r="I101" t="s">
         <v>412</v>
       </c>
       <c r="J101" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K101" t="s">
         <v>280</v>
       </c>
       <c r="L101" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M101" t="s">
         <v>412</v>
@@ -7752,13 +7752,13 @@
         <v>472</v>
       </c>
       <c r="O101" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="P101" t="s">
         <v>475</v>
       </c>
       <c r="Q101" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
       <c r="R101" t="s">
         <v>473</v>
@@ -7775,7 +7775,7 @@
         <v>281</v>
       </c>
       <c r="C102" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -7787,19 +7787,19 @@
         <v>281</v>
       </c>
       <c r="G102" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="H102" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="I102" t="s">
         <v>413</v>
       </c>
       <c r="J102" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K102" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="L102" t="s">
         <v>473</v>
@@ -7808,10 +7808,10 @@
         <v>281</v>
       </c>
       <c r="N102" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O102" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="P102" t="s">
         <v>475</v>
@@ -7834,7 +7834,7 @@
         <v>282</v>
       </c>
       <c r="C103" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
@@ -7846,16 +7846,16 @@
         <v>282</v>
       </c>
       <c r="G103" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="H103" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="I103" t="s">
         <v>414</v>
       </c>
       <c r="J103" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K103" t="s">
         <v>414</v>
@@ -7864,7 +7864,7 @@
         <v>472</v>
       </c>
       <c r="M103" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="N103" t="s">
         <v>475</v>
@@ -7873,10 +7873,10 @@
         <v>282</v>
       </c>
       <c r="P103" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q103" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="R103" t="s">
         <v>473</v>
@@ -7952,7 +7952,7 @@
         <v>283</v>
       </c>
       <c r="C105" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -7964,19 +7964,19 @@
         <v>283</v>
       </c>
       <c r="G105" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H105" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="I105" t="s">
         <v>415</v>
       </c>
       <c r="J105" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K105" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="L105" t="s">
         <v>473</v>
@@ -7991,10 +7991,10 @@
         <v>283</v>
       </c>
       <c r="P105" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q105" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="R105" t="s">
         <v>475</v>
@@ -8011,7 +8011,7 @@
         <v>284</v>
       </c>
       <c r="C106" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -8023,19 +8023,19 @@
         <v>284</v>
       </c>
       <c r="G106" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H106" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="I106" t="s">
         <v>416</v>
       </c>
       <c r="J106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K106" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L106" t="s">
         <v>475</v>
@@ -8047,7 +8047,7 @@
         <v>472</v>
       </c>
       <c r="O106" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="P106" t="s">
         <v>473</v>
@@ -8056,7 +8056,7 @@
         <v>284</v>
       </c>
       <c r="R106" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S106">
         <v>1.10773871504364</v>
@@ -8188,7 +8188,7 @@
         <v>285</v>
       </c>
       <c r="C109" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -8200,19 +8200,19 @@
         <v>285</v>
       </c>
       <c r="G109" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="H109" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="I109" t="s">
         <v>417</v>
       </c>
       <c r="J109" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K109" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="L109" t="s">
         <v>475</v>
@@ -8221,7 +8221,7 @@
         <v>285</v>
       </c>
       <c r="N109" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O109" t="s">
         <v>417</v>
@@ -8230,7 +8230,7 @@
         <v>472</v>
       </c>
       <c r="Q109" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="R109" t="s">
         <v>473</v>
@@ -8377,10 +8377,10 @@
         <v>286</v>
       </c>
       <c r="G112" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H112" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I112" t="s">
         <v>418</v>
@@ -8389,13 +8389,13 @@
         <v>342</v>
       </c>
       <c r="K112" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L112" t="s">
         <v>475</v>
       </c>
       <c r="M112" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="N112" t="s">
         <v>473</v>
@@ -8404,7 +8404,7 @@
         <v>286</v>
       </c>
       <c r="P112" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q112" t="s">
         <v>418</v>
@@ -8424,7 +8424,7 @@
         <v>287</v>
       </c>
       <c r="C113" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -8436,25 +8436,25 @@
         <v>287</v>
       </c>
       <c r="G113" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="H113" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="I113" t="s">
         <v>419</v>
       </c>
       <c r="J113" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K113" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="L113" t="s">
         <v>475</v>
       </c>
       <c r="M113" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="N113" t="s">
         <v>473</v>
@@ -8463,7 +8463,7 @@
         <v>287</v>
       </c>
       <c r="P113" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q113" t="s">
         <v>419</v>
@@ -8483,7 +8483,7 @@
         <v>288</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -8495,16 +8495,16 @@
         <v>288</v>
       </c>
       <c r="G114" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H114" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="I114" t="s">
         <v>420</v>
       </c>
       <c r="J114" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K114" t="s">
         <v>420</v>
@@ -8513,7 +8513,7 @@
         <v>472</v>
       </c>
       <c r="M114" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N114" t="s">
         <v>475</v>
@@ -8522,10 +8522,10 @@
         <v>288</v>
       </c>
       <c r="P114" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q114" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="R114" t="s">
         <v>473</v>
@@ -8601,28 +8601,28 @@
         <v>289</v>
       </c>
       <c r="C116" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="s">
         <v>289</v>
       </c>
       <c r="G116" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="H116" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="I116" t="s">
         <v>421</v>
       </c>
       <c r="J116" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K116" t="s">
         <v>289</v>
@@ -8637,13 +8637,13 @@
         <v>472</v>
       </c>
       <c r="O116" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="P116" t="s">
         <v>473</v>
       </c>
       <c r="Q116" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="R116" t="s">
         <v>475</v>
@@ -8660,7 +8660,7 @@
         <v>290</v>
       </c>
       <c r="C117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -8672,10 +8672,10 @@
         <v>290</v>
       </c>
       <c r="G117" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H117" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="I117" t="s">
         <v>422</v>
@@ -8684,13 +8684,13 @@
         <v>341</v>
       </c>
       <c r="K117" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="L117" t="s">
         <v>473</v>
       </c>
       <c r="M117" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N117" t="s">
         <v>475</v>
@@ -8699,7 +8699,7 @@
         <v>290</v>
       </c>
       <c r="P117" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q117" t="s">
         <v>422</v>
@@ -8719,28 +8719,28 @@
         <v>291</v>
       </c>
       <c r="C118" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="s">
         <v>291</v>
       </c>
       <c r="G118" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="H118" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="I118" t="s">
         <v>423</v>
       </c>
       <c r="J118" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K118" t="s">
         <v>291</v>
@@ -8749,7 +8749,7 @@
         <v>474</v>
       </c>
       <c r="M118" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="N118" t="s">
         <v>473</v>
@@ -8761,7 +8761,7 @@
         <v>472</v>
       </c>
       <c r="Q118" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="R118" t="s">
         <v>475</v>
@@ -8778,28 +8778,28 @@
         <v>292</v>
       </c>
       <c r="C119" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="s">
         <v>292</v>
       </c>
       <c r="G119" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H119" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="I119" t="s">
         <v>424</v>
       </c>
       <c r="J119" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K119" t="s">
         <v>424</v>
@@ -8808,7 +8808,7 @@
         <v>472</v>
       </c>
       <c r="M119" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N119" t="s">
         <v>475</v>
@@ -8820,7 +8820,7 @@
         <v>474</v>
       </c>
       <c r="Q119" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="R119" t="s">
         <v>473</v>
@@ -8837,7 +8837,7 @@
         <v>293</v>
       </c>
       <c r="C120" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -8849,10 +8849,10 @@
         <v>293</v>
       </c>
       <c r="G120" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="H120" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="I120" t="s">
         <v>425</v>
@@ -8870,16 +8870,16 @@
         <v>293</v>
       </c>
       <c r="N120" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O120" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="P120" t="s">
         <v>473</v>
       </c>
       <c r="Q120" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="R120" t="s">
         <v>475</v>
@@ -8955,7 +8955,7 @@
         <v>294</v>
       </c>
       <c r="C122" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -8967,19 +8967,19 @@
         <v>294</v>
       </c>
       <c r="G122" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="H122" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="I122" t="s">
         <v>426</v>
       </c>
       <c r="J122" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K122" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="L122" t="s">
         <v>473</v>
@@ -8988,7 +8988,7 @@
         <v>294</v>
       </c>
       <c r="N122" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O122" t="s">
         <v>426</v>
@@ -8997,7 +8997,7 @@
         <v>472</v>
       </c>
       <c r="Q122" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="R122" t="s">
         <v>475</v>
@@ -9073,31 +9073,31 @@
         <v>295</v>
       </c>
       <c r="C124" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
         <v>295</v>
       </c>
       <c r="G124" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="H124" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="I124" t="s">
         <v>427</v>
       </c>
       <c r="J124" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K124" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="L124" t="s">
         <v>475</v>
@@ -9109,7 +9109,7 @@
         <v>472</v>
       </c>
       <c r="O124" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="P124" t="s">
         <v>473</v>
@@ -9132,7 +9132,7 @@
         <v>296</v>
       </c>
       <c r="C125" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -9144,25 +9144,25 @@
         <v>296</v>
       </c>
       <c r="G125" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="H125" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="I125" t="s">
         <v>428</v>
       </c>
       <c r="J125" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K125" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="L125" t="s">
         <v>475</v>
       </c>
       <c r="M125" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="N125" t="s">
         <v>473</v>
@@ -9177,7 +9177,7 @@
         <v>296</v>
       </c>
       <c r="R125" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S125">
         <v>1.275269116326942</v>
@@ -9191,7 +9191,7 @@
         <v>297</v>
       </c>
       <c r="C126" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -9203,10 +9203,10 @@
         <v>297</v>
       </c>
       <c r="G126" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="H126" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="I126" t="s">
         <v>429</v>
@@ -9215,7 +9215,7 @@
         <v>340</v>
       </c>
       <c r="K126" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="L126" t="s">
         <v>473</v>
@@ -9224,10 +9224,10 @@
         <v>297</v>
       </c>
       <c r="N126" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O126" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="P126" t="s">
         <v>475</v>
@@ -9309,22 +9309,22 @@
         <v>298</v>
       </c>
       <c r="C128" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="s">
         <v>298</v>
       </c>
       <c r="G128" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="H128" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="I128" t="s">
         <v>430</v>
@@ -9339,7 +9339,7 @@
         <v>472</v>
       </c>
       <c r="M128" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="N128" t="s">
         <v>475</v>
@@ -9351,7 +9351,7 @@
         <v>474</v>
       </c>
       <c r="Q128" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="R128" t="s">
         <v>473</v>
@@ -9368,7 +9368,7 @@
         <v>299</v>
       </c>
       <c r="C129" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -9380,10 +9380,10 @@
         <v>299</v>
       </c>
       <c r="G129" t="s">
-        <v>337</v>
+        <v>225</v>
       </c>
       <c r="H129" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="I129" t="s">
         <v>431</v>
@@ -9395,10 +9395,10 @@
         <v>299</v>
       </c>
       <c r="L129" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M129" t="s">
-        <v>337</v>
+        <v>225</v>
       </c>
       <c r="N129" t="s">
         <v>475</v>
@@ -9410,7 +9410,7 @@
         <v>472</v>
       </c>
       <c r="Q129" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="R129" t="s">
         <v>473</v>
@@ -9427,7 +9427,7 @@
         <v>300</v>
       </c>
       <c r="C130" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -9439,10 +9439,10 @@
         <v>300</v>
       </c>
       <c r="G130" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="H130" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="I130" t="s">
         <v>432</v>
@@ -9451,7 +9451,7 @@
         <v>340</v>
       </c>
       <c r="K130" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L130" t="s">
         <v>473</v>
@@ -9460,7 +9460,7 @@
         <v>300</v>
       </c>
       <c r="N130" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O130" t="s">
         <v>432</v>
@@ -9469,7 +9469,7 @@
         <v>472</v>
       </c>
       <c r="Q130" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="R130" t="s">
         <v>475</v>
@@ -9498,16 +9498,16 @@
         <v>301</v>
       </c>
       <c r="G131" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="H131" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="I131" t="s">
         <v>433</v>
       </c>
       <c r="J131" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K131" t="s">
         <v>433</v>
@@ -9516,13 +9516,13 @@
         <v>472</v>
       </c>
       <c r="M131" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="N131" t="s">
         <v>473</v>
       </c>
       <c r="O131" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="P131" t="s">
         <v>475</v>
@@ -9531,7 +9531,7 @@
         <v>301</v>
       </c>
       <c r="R131" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S131">
         <v>1.06660850456199</v>
@@ -9610,25 +9610,25 @@
         <v>0</v>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="s">
         <v>302</v>
       </c>
       <c r="G133" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="H133" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="I133" t="s">
         <v>434</v>
       </c>
       <c r="J133" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K133" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="L133" t="s">
         <v>473</v>
@@ -9640,7 +9640,7 @@
         <v>474</v>
       </c>
       <c r="O133" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="P133" t="s">
         <v>475</v>
@@ -9663,28 +9663,28 @@
         <v>303</v>
       </c>
       <c r="C134" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="s">
         <v>303</v>
       </c>
       <c r="G134" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="H134" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="I134" t="s">
         <v>435</v>
       </c>
       <c r="J134" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K134" t="s">
         <v>303</v>
@@ -9699,13 +9699,13 @@
         <v>472</v>
       </c>
       <c r="O134" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="P134" t="s">
         <v>475</v>
       </c>
       <c r="Q134" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="R134" t="s">
         <v>473</v>
@@ -9734,10 +9734,10 @@
         <v>304</v>
       </c>
       <c r="G135" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="H135" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="I135" t="s">
         <v>436</v>
@@ -9749,7 +9749,7 @@
         <v>304</v>
       </c>
       <c r="L135" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M135" t="s">
         <v>436</v>
@@ -9758,13 +9758,13 @@
         <v>472</v>
       </c>
       <c r="O135" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="P135" t="s">
         <v>475</v>
       </c>
       <c r="Q135" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="R135" t="s">
         <v>473</v>
@@ -9781,22 +9781,22 @@
         <v>305</v>
       </c>
       <c r="C136" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="s">
         <v>305</v>
       </c>
       <c r="G136" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="H136" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="I136" t="s">
         <v>437</v>
@@ -9817,13 +9817,13 @@
         <v>472</v>
       </c>
       <c r="O136" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="P136" t="s">
         <v>475</v>
       </c>
       <c r="Q136" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="R136" t="s">
         <v>473</v>
@@ -9958,7 +9958,7 @@
         <v>306</v>
       </c>
       <c r="C139" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -9970,25 +9970,25 @@
         <v>306</v>
       </c>
       <c r="G139" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="H139" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I139" t="s">
         <v>438</v>
       </c>
       <c r="J139" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K139" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="L139" t="s">
         <v>475</v>
       </c>
       <c r="M139" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="N139" t="s">
         <v>473</v>
@@ -9997,7 +9997,7 @@
         <v>306</v>
       </c>
       <c r="P139" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Q139" t="s">
         <v>438</v>
@@ -10017,7 +10017,7 @@
         <v>307</v>
       </c>
       <c r="C140" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -10029,10 +10029,10 @@
         <v>307</v>
       </c>
       <c r="G140" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="H140" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I140" t="s">
         <v>439</v>
@@ -10044,16 +10044,16 @@
         <v>307</v>
       </c>
       <c r="L140" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M140" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N140" t="s">
         <v>473</v>
       </c>
       <c r="O140" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="P140" t="s">
         <v>475</v>
@@ -10076,7 +10076,7 @@
         <v>308</v>
       </c>
       <c r="C141" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -10088,25 +10088,25 @@
         <v>308</v>
       </c>
       <c r="G141" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="H141" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="I141" t="s">
         <v>440</v>
       </c>
       <c r="J141" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K141" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="L141" t="s">
         <v>473</v>
       </c>
       <c r="M141" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="N141" t="s">
         <v>475</v>
@@ -10115,7 +10115,7 @@
         <v>308</v>
       </c>
       <c r="P141" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Q141" t="s">
         <v>440</v>
@@ -10135,31 +10135,31 @@
         <v>309</v>
       </c>
       <c r="C142" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="s">
         <v>309</v>
       </c>
       <c r="G142" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="H142" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="I142" t="s">
         <v>441</v>
       </c>
       <c r="J142" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K142" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="L142" t="s">
         <v>475</v>
@@ -10171,7 +10171,7 @@
         <v>472</v>
       </c>
       <c r="O142" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="P142" t="s">
         <v>473</v>
@@ -10430,7 +10430,7 @@
         <v>310</v>
       </c>
       <c r="C147" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>310</v>
       </c>
       <c r="G147" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="H147" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I147" t="s">
         <v>442</v>
       </c>
       <c r="J147" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K147" t="s">
         <v>442</v>
@@ -10460,13 +10460,13 @@
         <v>472</v>
       </c>
       <c r="M147" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="N147" t="s">
         <v>475</v>
       </c>
       <c r="O147" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="P147" t="s">
         <v>473</v>
@@ -10475,7 +10475,7 @@
         <v>310</v>
       </c>
       <c r="R147" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S147">
         <v>1.125998782406999</v>
@@ -10548,28 +10548,28 @@
         <v>311</v>
       </c>
       <c r="C149" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="s">
         <v>311</v>
       </c>
       <c r="G149" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="H149" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="I149" t="s">
         <v>443</v>
       </c>
       <c r="J149" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K149" t="s">
         <v>311</v>
@@ -10578,7 +10578,7 @@
         <v>474</v>
       </c>
       <c r="M149" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="N149" t="s">
         <v>473</v>
@@ -10590,7 +10590,7 @@
         <v>472</v>
       </c>
       <c r="Q149" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="R149" t="s">
         <v>475</v>
@@ -10607,7 +10607,7 @@
         <v>312</v>
       </c>
       <c r="C150" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -10619,22 +10619,22 @@
         <v>312</v>
       </c>
       <c r="G150" t="s">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="H150" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="I150" t="s">
         <v>444</v>
       </c>
       <c r="J150" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K150" t="s">
         <v>312</v>
       </c>
       <c r="L150" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M150" t="s">
         <v>444</v>
@@ -10643,13 +10643,13 @@
         <v>472</v>
       </c>
       <c r="O150" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="P150" t="s">
         <v>473</v>
       </c>
       <c r="Q150" t="s">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="R150" t="s">
         <v>475</v>
@@ -10666,7 +10666,7 @@
         <v>313</v>
       </c>
       <c r="C151" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>313</v>
       </c>
       <c r="G151" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="H151" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="I151" t="s">
         <v>445</v>
       </c>
       <c r="J151" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K151" t="s">
         <v>445</v>
@@ -10696,7 +10696,7 @@
         <v>472</v>
       </c>
       <c r="M151" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="N151" t="s">
         <v>475</v>
@@ -10705,10 +10705,10 @@
         <v>313</v>
       </c>
       <c r="P151" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q151" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="R151" t="s">
         <v>473</v>
@@ -10725,7 +10725,7 @@
         <v>314</v>
       </c>
       <c r="C152" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -10737,19 +10737,19 @@
         <v>314</v>
       </c>
       <c r="G152" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="H152" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
       <c r="I152" t="s">
         <v>446</v>
       </c>
       <c r="J152" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K152" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="L152" t="s">
         <v>475</v>
@@ -10758,7 +10758,7 @@
         <v>314</v>
       </c>
       <c r="N152" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O152" t="s">
         <v>446</v>
@@ -10767,7 +10767,7 @@
         <v>472</v>
       </c>
       <c r="Q152" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
       <c r="R152" t="s">
         <v>473</v>
@@ -10784,7 +10784,7 @@
         <v>315</v>
       </c>
       <c r="C153" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
@@ -10796,19 +10796,19 @@
         <v>315</v>
       </c>
       <c r="G153" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="H153" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="I153" t="s">
         <v>447</v>
       </c>
       <c r="J153" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K153" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="L153" t="s">
         <v>475</v>
@@ -10823,10 +10823,10 @@
         <v>315</v>
       </c>
       <c r="P153" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q153" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="R153" t="s">
         <v>473</v>
@@ -10843,7 +10843,7 @@
         <v>316</v>
       </c>
       <c r="C154" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -10855,31 +10855,31 @@
         <v>316</v>
       </c>
       <c r="G154" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="H154" t="s">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="I154" t="s">
         <v>448</v>
       </c>
       <c r="J154" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K154" t="s">
         <v>316</v>
       </c>
       <c r="L154" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M154" t="s">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="N154" t="s">
         <v>473</v>
       </c>
       <c r="O154" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="P154" t="s">
         <v>475</v>
@@ -10961,7 +10961,7 @@
         <v>317</v>
       </c>
       <c r="C156" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>317</v>
       </c>
       <c r="G156" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="H156" t="s">
         <v>221</v>
@@ -10982,13 +10982,13 @@
         <v>449</v>
       </c>
       <c r="J156" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K156" t="s">
         <v>317</v>
       </c>
       <c r="L156" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M156" t="s">
         <v>449</v>
@@ -10997,7 +10997,7 @@
         <v>472</v>
       </c>
       <c r="O156" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="P156" t="s">
         <v>475</v>
@@ -11020,7 +11020,7 @@
         <v>318</v>
       </c>
       <c r="C157" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -11032,25 +11032,25 @@
         <v>318</v>
       </c>
       <c r="G157" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H157" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="I157" t="s">
         <v>450</v>
       </c>
       <c r="J157" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K157" t="s">
         <v>318</v>
       </c>
       <c r="L157" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M157" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N157" t="s">
         <v>475</v>
@@ -11062,7 +11062,7 @@
         <v>472</v>
       </c>
       <c r="Q157" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="R157" t="s">
         <v>473</v>
@@ -11079,7 +11079,7 @@
         <v>319</v>
       </c>
       <c r="C158" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
@@ -11091,31 +11091,31 @@
         <v>319</v>
       </c>
       <c r="G158" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="H158" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="I158" t="s">
         <v>451</v>
       </c>
       <c r="J158" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K158" t="s">
         <v>319</v>
       </c>
       <c r="L158" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M158" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N158" t="s">
         <v>473</v>
       </c>
       <c r="O158" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="P158" t="s">
         <v>475</v>
@@ -11138,37 +11138,37 @@
         <v>320</v>
       </c>
       <c r="C159" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="s">
         <v>320</v>
       </c>
       <c r="G159" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="H159" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="I159" t="s">
         <v>452</v>
       </c>
       <c r="J159" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K159" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="L159" t="s">
         <v>475</v>
       </c>
       <c r="M159" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="N159" t="s">
         <v>473</v>
@@ -11262,22 +11262,22 @@
         <v>0</v>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="s">
         <v>321</v>
       </c>
       <c r="G161" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="H161" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="I161" t="s">
         <v>453</v>
       </c>
       <c r="J161" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K161" t="s">
         <v>453</v>
@@ -11286,7 +11286,7 @@
         <v>472</v>
       </c>
       <c r="M161" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="N161" t="s">
         <v>475</v>
@@ -11298,7 +11298,7 @@
         <v>476</v>
       </c>
       <c r="Q161" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="R161" t="s">
         <v>473</v>
@@ -11315,7 +11315,7 @@
         <v>322</v>
       </c>
       <c r="C162" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
@@ -11327,19 +11327,19 @@
         <v>322</v>
       </c>
       <c r="G162" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="H162" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="I162" t="s">
         <v>454</v>
       </c>
       <c r="J162" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K162" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="L162" t="s">
         <v>473</v>
@@ -11351,7 +11351,7 @@
         <v>472</v>
       </c>
       <c r="O162" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="P162" t="s">
         <v>475</v>
@@ -11360,7 +11360,7 @@
         <v>322</v>
       </c>
       <c r="R162" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S162">
         <v>1.044908223475595</v>
@@ -11374,7 +11374,7 @@
         <v>323</v>
       </c>
       <c r="C163" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
@@ -11386,25 +11386,25 @@
         <v>323</v>
       </c>
       <c r="G163" t="s">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="H163" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="I163" t="s">
         <v>455</v>
       </c>
       <c r="J163" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K163" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="L163" t="s">
         <v>473</v>
       </c>
       <c r="M163" t="s">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="N163" t="s">
         <v>475</v>
@@ -11419,7 +11419,7 @@
         <v>323</v>
       </c>
       <c r="R163" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S163">
         <v>1.119540405309114</v>
@@ -11433,7 +11433,7 @@
         <v>324</v>
       </c>
       <c r="C164" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
@@ -11445,19 +11445,19 @@
         <v>324</v>
       </c>
       <c r="G164" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="H164" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="I164" t="s">
         <v>456</v>
       </c>
       <c r="J164" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K164" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="L164" t="s">
         <v>473</v>
@@ -11472,10 +11472,10 @@
         <v>324</v>
       </c>
       <c r="P164" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q164" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="R164" t="s">
         <v>475</v>
@@ -11610,7 +11610,7 @@
         <v>325</v>
       </c>
       <c r="C167" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -11622,25 +11622,25 @@
         <v>325</v>
       </c>
       <c r="G167" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="H167" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="I167" t="s">
         <v>457</v>
       </c>
       <c r="J167" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K167" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="L167" t="s">
         <v>473</v>
       </c>
       <c r="M167" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="N167" t="s">
         <v>475</v>
@@ -11649,7 +11649,7 @@
         <v>325</v>
       </c>
       <c r="P167" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q167" t="s">
         <v>457</v>
@@ -11787,7 +11787,7 @@
         <v>326</v>
       </c>
       <c r="C170" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
@@ -11799,16 +11799,16 @@
         <v>326</v>
       </c>
       <c r="G170" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="H170" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="I170" t="s">
         <v>458</v>
       </c>
       <c r="J170" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K170" t="s">
         <v>458</v>
@@ -11817,13 +11817,13 @@
         <v>472</v>
       </c>
       <c r="M170" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="N170" t="s">
         <v>475</v>
       </c>
       <c r="O170" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="P170" t="s">
         <v>473</v>
@@ -11832,7 +11832,7 @@
         <v>326</v>
       </c>
       <c r="R170" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S170">
         <v>1.061368946824443</v>
@@ -11917,22 +11917,22 @@
         <v>327</v>
       </c>
       <c r="G172" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="H172" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="I172" t="s">
         <v>459</v>
       </c>
       <c r="J172" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K172" t="s">
         <v>327</v>
       </c>
       <c r="L172" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M172" t="s">
         <v>459</v>
@@ -11941,13 +11941,13 @@
         <v>472</v>
       </c>
       <c r="O172" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="P172" t="s">
         <v>475</v>
       </c>
       <c r="Q172" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="R172" t="s">
         <v>473</v>
@@ -12200,7 +12200,7 @@
         <v>328</v>
       </c>
       <c r="C177" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
@@ -12212,16 +12212,16 @@
         <v>328</v>
       </c>
       <c r="G177" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H177" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="I177" t="s">
         <v>460</v>
       </c>
       <c r="J177" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K177" t="s">
         <v>460</v>
@@ -12233,16 +12233,16 @@
         <v>328</v>
       </c>
       <c r="N177" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O177" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="P177" t="s">
         <v>473</v>
       </c>
       <c r="Q177" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="R177" t="s">
         <v>475</v>
@@ -12259,7 +12259,7 @@
         <v>329</v>
       </c>
       <c r="C178" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
@@ -12271,16 +12271,16 @@
         <v>329</v>
       </c>
       <c r="G178" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H178" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="I178" t="s">
         <v>461</v>
       </c>
       <c r="J178" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K178" t="s">
         <v>461</v>
@@ -12292,16 +12292,16 @@
         <v>329</v>
       </c>
       <c r="N178" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O178" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="P178" t="s">
         <v>475</v>
       </c>
       <c r="Q178" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="R178" t="s">
         <v>473</v>
@@ -12318,7 +12318,7 @@
         <v>330</v>
       </c>
       <c r="C179" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D179" t="b">
         <v>0</v>
@@ -12330,31 +12330,31 @@
         <v>330</v>
       </c>
       <c r="G179" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="H179" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="I179" t="s">
         <v>462</v>
       </c>
       <c r="J179" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K179" t="s">
         <v>330</v>
       </c>
       <c r="L179" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M179" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="N179" t="s">
         <v>473</v>
       </c>
       <c r="O179" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="P179" t="s">
         <v>475</v>
@@ -12436,28 +12436,28 @@
         <v>331</v>
       </c>
       <c r="C181" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="s">
         <v>331</v>
       </c>
       <c r="G181" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H181" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="I181" t="s">
         <v>463</v>
       </c>
       <c r="J181" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K181" t="s">
         <v>331</v>
@@ -12466,13 +12466,13 @@
         <v>476</v>
       </c>
       <c r="M181" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="N181" t="s">
         <v>473</v>
       </c>
       <c r="O181" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="P181" t="s">
         <v>475</v>
@@ -12495,7 +12495,7 @@
         <v>332</v>
       </c>
       <c r="C182" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
@@ -12507,10 +12507,10 @@
         <v>332</v>
       </c>
       <c r="G182" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="H182" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I182" t="s">
         <v>464</v>
@@ -12519,7 +12519,7 @@
         <v>343</v>
       </c>
       <c r="K182" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L182" t="s">
         <v>473</v>
@@ -12534,10 +12534,10 @@
         <v>332</v>
       </c>
       <c r="P182" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q182" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="R182" t="s">
         <v>475</v>
@@ -12560,16 +12560,16 @@
         <v>0</v>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="s">
         <v>333</v>
       </c>
       <c r="G183" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="H183" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I183" t="s">
         <v>465</v>
@@ -12578,13 +12578,13 @@
         <v>343</v>
       </c>
       <c r="K183" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="L183" t="s">
         <v>475</v>
       </c>
       <c r="M183" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N183" t="s">
         <v>473</v>
@@ -12678,16 +12678,16 @@
         <v>0</v>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="s">
         <v>334</v>
       </c>
       <c r="G185" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="H185" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I185" t="s">
         <v>466</v>
@@ -12708,13 +12708,13 @@
         <v>472</v>
       </c>
       <c r="O185" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="P185" t="s">
         <v>475</v>
       </c>
       <c r="Q185" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="R185" t="s">
         <v>473</v>
@@ -12731,7 +12731,7 @@
         <v>335</v>
       </c>
       <c r="C186" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
@@ -12743,16 +12743,16 @@
         <v>335</v>
       </c>
       <c r="G186" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="H186" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="I186" t="s">
         <v>467</v>
       </c>
       <c r="J186" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K186" t="s">
         <v>467</v>
@@ -12761,13 +12761,13 @@
         <v>472</v>
       </c>
       <c r="M186" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="N186" t="s">
         <v>473</v>
       </c>
       <c r="O186" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="P186" t="s">
         <v>475</v>
@@ -12776,7 +12776,7 @@
         <v>335</v>
       </c>
       <c r="R186" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S186">
         <v>1.169571126534711</v>
@@ -12849,7 +12849,7 @@
         <v>336</v>
       </c>
       <c r="C188" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -12861,19 +12861,19 @@
         <v>336</v>
       </c>
       <c r="G188" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="H188" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I188" t="s">
         <v>468</v>
       </c>
       <c r="J188" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K188" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L188" t="s">
         <v>473</v>
@@ -12888,10 +12888,10 @@
         <v>336</v>
       </c>
       <c r="P188" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q188" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="R188" t="s">
         <v>475</v>
@@ -12979,25 +12979,25 @@
         <v>337</v>
       </c>
       <c r="G190" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="H190" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="I190" t="s">
         <v>469</v>
       </c>
       <c r="J190" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K190" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="L190" t="s">
         <v>473</v>
       </c>
       <c r="M190" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="N190" t="s">
         <v>475</v>
@@ -13006,7 +13006,7 @@
         <v>337</v>
       </c>
       <c r="P190" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q190" t="s">
         <v>469</v>
@@ -13026,28 +13026,28 @@
         <v>338</v>
       </c>
       <c r="C191" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="s">
         <v>338</v>
       </c>
       <c r="G191" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H191" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I191" t="s">
         <v>470</v>
       </c>
       <c r="J191" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K191" t="s">
         <v>338</v>
@@ -13062,13 +13062,13 @@
         <v>472</v>
       </c>
       <c r="O191" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="P191" t="s">
         <v>475</v>
       </c>
       <c r="Q191" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="R191" t="s">
         <v>473</v>
@@ -13150,16 +13150,16 @@
         <v>0</v>
       </c>
       <c r="E193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="s">
         <v>339</v>
       </c>
       <c r="G193" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="H193" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="I193" t="s">
         <v>471</v>
@@ -13174,7 +13174,7 @@
         <v>476</v>
       </c>
       <c r="M193" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="N193" t="s">
         <v>473</v>
@@ -13186,7 +13186,7 @@
         <v>472</v>
       </c>
       <c r="Q193" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="R193" t="s">
         <v>475</v>
